--- a/xlsx/mix.xlsx
+++ b/xlsx/mix.xlsx
@@ -8,12 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mix\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791C4E44-221C-415E-88D3-4AA9AEC0D8B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B238ABB-B5B9-426C-8EFA-831B4DE327AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" firstSheet="1" activeTab="6" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="mix 20x20" sheetId="3" r:id="rId1"/>
+    <sheet name="mix 10x10" sheetId="4" r:id="rId2"/>
+    <sheet name="fem 20x20" sheetId="6" r:id="rId3"/>
+    <sheet name="fem 10x10" sheetId="5" r:id="rId4"/>
+    <sheet name="可压 fem20x20" sheetId="8" r:id="rId5"/>
+    <sheet name="可压fem10x10" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +31,30 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u/p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndiv_p</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -38,6 +66,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -62,8 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,24 +415,651 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4190C669-8EE4-423F-8801-56243CF60B33}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>-3.476579847085</v>
+      </c>
+      <c r="D2">
+        <v>-1.8744684197692167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="C3">
+        <v>-3.4777037486317495</v>
+      </c>
+      <c r="D3">
+        <v>-1.8744620587078493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C4">
+        <v>-3.4782302091410577</v>
+      </c>
+      <c r="D4">
+        <v>-1.8744600494221224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5">
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="C5">
+        <v>-3.4796574914896663</v>
+      </c>
+      <c r="D5">
+        <v>-1.8744563237878702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="C6">
+        <v>-3.4799961246674114</v>
+      </c>
+      <c r="D6">
+        <v>-1.8744551830778469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C7">
+        <v>-3.481947540297619</v>
+      </c>
+      <c r="D7">
+        <v>-1.8744507838089428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8">
+        <v>1.25</v>
+      </c>
+      <c r="C8">
+        <v>-3.4781448901922638</v>
+      </c>
+      <c r="D8">
+        <v>-1.8744588511306643</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9">
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="C9">
+        <v>-3.4790259265580379</v>
+      </c>
+      <c r="D9">
+        <v>-1.8744580699182285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="C10">
+        <v>-3.4795340079265031</v>
+      </c>
+      <c r="D10">
+        <v>-1.8744568636423991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="C11">
+        <v>-3.4794222228149474</v>
+      </c>
+      <c r="D11">
+        <v>-1.8744505922039385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>-3.4849658319084607</v>
+      </c>
+      <c r="D12">
+        <v>-1.874425608803558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="C13">
+        <v>-3.5232796045862398</v>
+      </c>
+      <c r="D13">
+        <v>-1.8744082098890382</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="C14">
+        <v>-3.5079515930310765</v>
+      </c>
+      <c r="D14">
+        <v>-1.8744060385188153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="C15">
+        <v>-3.5294261296750533</v>
+      </c>
+      <c r="D15">
+        <v>-1.8743925467886053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C16">
+        <v>-3.5555120162633767</v>
+      </c>
+      <c r="D16">
+        <v>-1.8743728907563582</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17">
+        <v>0.8</v>
+      </c>
+      <c r="C17">
+        <v>-3.5937016599819267</v>
+      </c>
+      <c r="D17">
+        <v>-1.8743558021677089</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="C18">
+        <v>-3.6043226458341264</v>
+      </c>
+      <c r="D18">
+        <v>-1.8743322394553659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="B19">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C19">
+        <v>-3.7154230376343929</v>
+      </c>
+      <c r="D19">
+        <v>-1.8742732411419523</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="B20">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C20">
+        <v>-3.7943400182843123</v>
+      </c>
+      <c r="D20">
+        <v>-1.874240959893271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21">
+        <v>0.68965517241379315</v>
+      </c>
+      <c r="C21">
+        <v>-3.7943395561618063</v>
+      </c>
+      <c r="D21">
+        <v>-1.8742409591082565</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C22">
+        <v>-3.7943392844546215</v>
+      </c>
+      <c r="D22">
+        <v>-1.8742409590678852</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23">
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="C23">
+        <v>-3.7943394048133618</v>
+      </c>
+      <c r="D23">
+        <v>-1.8742409590116154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24">
+        <v>0.625</v>
+      </c>
+      <c r="C24">
+        <v>-3.7943394755780036</v>
+      </c>
+      <c r="D24">
+        <v>-1.8742409590419569</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25">
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="C25">
+        <v>-3.7943394826991752</v>
+      </c>
+      <c r="D25">
+        <v>-1.874240959024186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="C26">
+        <v>-3.7943395143012917</v>
+      </c>
+      <c r="D26">
+        <v>-1.8742409590223517</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C27">
+        <v>-3.7943393997268662</v>
+      </c>
+      <c r="D27">
+        <v>-1.8742409591006552</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C28">
+        <v>-3.7943394635591869</v>
+      </c>
+      <c r="D28">
+        <v>-1.8742409590333857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29">
+        <v>0.54054054054054057</v>
+      </c>
+      <c r="C29">
+        <v>-3.7943394818105922</v>
+      </c>
+      <c r="D29">
+        <v>-1.8742409590369151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="C30">
+        <v>-3.7943394899737428</v>
+      </c>
+      <c r="D30">
+        <v>-1.8742409590402542</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31">
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="C31">
+        <v>-3.7943394785664557</v>
+      </c>
+      <c r="D31">
+        <v>-1.874240959016912</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32">
+        <v>0.5</v>
+      </c>
+      <c r="C32">
+        <v>-3.7943394807950432</v>
+      </c>
+      <c r="D32">
+        <v>-1.8742409590438591</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549F3F5D-0D43-4991-94D0-078CB6F986C4}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>-2.8925348756549223</v>
+      </c>
+      <c r="D2">
+        <v>-1.5742419368947986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C3">
+        <v>-2.8952634187805915</v>
+      </c>
+      <c r="D3">
+        <v>-1.5742241290088463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="C4">
+        <v>-2.8969849151778133</v>
+      </c>
+      <c r="D4">
+        <v>-1.5741939905096887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1.25</v>
+      </c>
+      <c r="C5">
+        <v>-2.8975398421917848</v>
+      </c>
+      <c r="D5">
+        <v>-1.5742212039553862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="C6">
+        <v>-2.910897867480585</v>
+      </c>
+      <c r="D6">
+        <v>-1.574112813491229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>-2.9079992322154515</v>
+      </c>
+      <c r="D7">
+        <v>-1.5741528738819022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="C8">
+        <v>-3.0018937659015581</v>
+      </c>
+      <c r="D8">
+        <v>-1.5739792218029938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C9">
+        <v>-3.0465647005092813</v>
+      </c>
+      <c r="D9">
+        <v>-1.5738373673867649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="C10">
+        <v>-3.1201198977901443</v>
+      </c>
+      <c r="D10">
+        <v>-1.5736506766785596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C11">
+        <v>-3.1908127279519864</v>
+      </c>
+      <c r="D11">
+        <v>-1.5735275646350122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C12">
+        <v>-3.1908127280433396</v>
+      </c>
+      <c r="D12">
+        <v>-1.5735275646232469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>0.625</v>
+      </c>
+      <c r="C13">
+        <v>-3.1908127301128877</v>
+      </c>
+      <c r="D13">
+        <v>-1.5735275646271552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="C14">
+        <v>-3.1908127296663382</v>
+      </c>
+      <c r="D14">
+        <v>-1.5735275646286735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C15">
+        <v>-3.1908127297469338</v>
+      </c>
+      <c r="D15">
+        <v>-1.5735275646301148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="C16">
+        <v>-3.1908127296606574</v>
+      </c>
+      <c r="D16">
+        <v>-1.5735275646293791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>-3.1908127296856876</v>
+      </c>
+      <c r="D17">
+        <v>-1.5735275646295144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D662745E-0523-44BF-87F8-6774BDD50A9F}">
   <dimension ref="B2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>0.2576706837549352</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D2">
-        <v>2.8929823996598605e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -402,10 +1067,10 @@
         <v>1.8181818181818181</v>
       </c>
       <c r="C3">
-        <v>-0.13007760645656843</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D3">
-        <v>1.8322221864512418e-15</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -413,10 +1078,10 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="C4">
-        <v>0.09653197605136413</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D4">
-        <v>1.9286549331065737e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -424,10 +1089,10 @@
         <v>1.5384615384615385</v>
       </c>
       <c r="C5">
-        <v>0.1288023307877816</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D5">
-        <v>1.9286549331065737e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -435,10 +1100,10 @@
         <v>1.4285714285714286</v>
       </c>
       <c r="C6">
-        <v>-0.034747121319097116</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D6">
-        <v>1.0607602132086145e-15</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -446,10 +1111,10 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="C7">
-        <v>0.414013343023237</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D7">
-        <v>9.64327466553287e-17</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -457,10 +1122,10 @@
         <v>1.25</v>
       </c>
       <c r="C8">
-        <v>0.26011814059974403</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D8">
-        <v>4.821637332766433e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -468,10 +1133,10 @@
         <v>1.1764705882352942</v>
       </c>
       <c r="C9">
-        <v>-0.11702244689162616</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D9">
-        <v>4.821637332766433e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -479,10 +1144,10 @@
         <v>1.1111111111111112</v>
       </c>
       <c r="C10">
-        <v>0.1935801020765205</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D10">
-        <v>-4.821637332766436e-17</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -490,65 +1155,65 @@
         <v>1.0526315789473684</v>
       </c>
       <c r="C11">
-        <v>-0.042651549372247896</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D11">
-        <v>1.9286549331065737e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.1283940123345364</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D12">
-        <v>1.9286549331065737e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13">
-        <v>0.9523809523809523</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="C13">
-        <v>-0.08805350347367252</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D13">
-        <v>1.9286549331065737e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14">
-        <v>0.9090909090909091</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="C14">
-        <v>-0.10242290656228548</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D14">
-        <v>1.9286549331065737e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15">
-        <v>0.8695652173913043</v>
+        <v>0.86956521739130432</v>
       </c>
       <c r="C15">
-        <v>0.5550221147099151</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D15">
-        <v>9.64327466553287e-17</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16">
-        <v>0.8333333333333334</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C16">
-        <v>1.0172954535463854</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D16">
-        <v>0.0</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -556,21 +1221,21 @@
         <v>0.8</v>
       </c>
       <c r="C17">
-        <v>0.23481323808328322</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D17">
-        <v>9.64327466553287e-17</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18">
-        <v>0.7692307692307693</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="C18">
-        <v>0.10637795488714678</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D18">
-        <v>9.64327466553287e-17</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -578,10 +1243,10 @@
         <v>0.7407407407407407</v>
       </c>
       <c r="C19">
-        <v>-0.07752962836322619</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D19">
-        <v>3.857309866213147e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -589,43 +1254,43 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="C20">
-        <v>-0.03057509857672206</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D20">
-        <v>9.64327466553287e-17</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21">
-        <v>0.6896551724137931</v>
+        <v>0.68965517241379315</v>
       </c>
       <c r="C21">
-        <v>1.4977334677481153</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D21">
-        <v>0.0</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22">
-        <v>0.6666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C22">
-        <v>0.3375846746904608</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D22">
-        <v>0.0</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23">
-        <v>0.6451612903225806</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="C23">
-        <v>0.14168042424653754</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D23">
-        <v>1.9286549331065737e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -633,32 +1298,32 @@
         <v>0.625</v>
       </c>
       <c r="C24">
-        <v>0.06516514387440588</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D24">
-        <v>2.8929823996598605e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25">
-        <v>0.6060606060606061</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="C25">
-        <v>0.01334694225269228</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D25">
-        <v>1.9286549331065737e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26">
-        <v>0.5882352941176471</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="C26">
-        <v>-0.052381273502364656</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D26">
-        <v>9.64327466553287e-17</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -666,54 +1331,54 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="C27">
-        <v>-0.0698554269559783</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D27">
-        <v>1.9286549331065737e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28">
-        <v>0.5555555555555556</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C28">
-        <v>-0.08276333944076372</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D28">
-        <v>2.8929823996598605e-16</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29">
-        <v>0.5405405405405406</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="C29">
-        <v>0.0013190866670818534</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D29">
-        <v>9.64327466553287e-17</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30">
-        <v>0.5263157894736842</v>
+        <v>0.52631578947368418</v>
       </c>
       <c r="C30">
-        <v>0.2576671750921267</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D30">
-        <v>9.64327466553287e-17</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31">
-        <v>0.5128205128205128</v>
+        <v>0.51282051282051277</v>
       </c>
       <c r="C31">
-        <v>0.300144736255904</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D31">
-        <v>0.0</v>
+        <v>-1.8744465966994062</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -721,10 +1386,1864 @@
         <v>0.5</v>
       </c>
       <c r="C32">
-        <v>-0.05255902510447788</v>
+        <v>-3.4832869213821538</v>
       </c>
       <c r="D32">
-        <v>1.9286549331065737e-16</v>
+        <v>-1.8744465966994062</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7198BC-BCC6-457F-AA84-9EC9AD6FC407}">
+  <dimension ref="B2:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D2">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C3">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D3">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="C4">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D4">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>1.25</v>
+      </c>
+      <c r="C5">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D5">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="C6">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D6">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D7">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="C8">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D8">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C9">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D9">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="C10">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D10">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C11">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D11">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C12">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D12">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>0.625</v>
+      </c>
+      <c r="C13">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D13">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="C14">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D14">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C15">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D15">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="C16">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D16">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>-2.9092117628264176</v>
+      </c>
+      <c r="D17">
+        <v>-1.5741612413943125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A022035D-AF30-4E77-A256-ACEE80049B2B}">
+  <dimension ref="B2:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D2">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3">
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="C3">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D3">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C4">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D4">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>1.5384615384615385</v>
+      </c>
+      <c r="C5">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D5">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="C6">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D6">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C7">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D7">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>1.25</v>
+      </c>
+      <c r="C8">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D8">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="C9">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D9">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="C10">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D10">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="C11">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D11">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D12">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="C13">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D13">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="C14">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D14">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="C15">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D15">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C16">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D16">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>0.8</v>
+      </c>
+      <c r="C17">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D17">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="C18">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D18">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="C19">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D19">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C20">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D20">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>0.68965517241379315</v>
+      </c>
+      <c r="C21">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D21">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C22">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D22">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23">
+        <v>0.64516129032258063</v>
+      </c>
+      <c r="C23">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D23">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>0.625</v>
+      </c>
+      <c r="C24">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D24">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>0.60606060606060608</v>
+      </c>
+      <c r="C25">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D25">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="C26">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D26">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="C27">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D27">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C28">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D28">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29">
+        <v>0.54054054054054057</v>
+      </c>
+      <c r="C29">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D29">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="C30">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D30">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31">
+        <v>0.51282051282051277</v>
+      </c>
+      <c r="C31">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D31">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32">
+        <v>0.5</v>
+      </c>
+      <c r="C32">
+        <v>-3.4024020851560288</v>
+      </c>
+      <c r="D32">
+        <v>-1.8745628128111498</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AF922A-0DD5-444F-A991-D539C8861EF3}">
+  <dimension ref="B2:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D2">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="C3">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D3">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="C4">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D4">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>1.25</v>
+      </c>
+      <c r="C5">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D5">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="C6">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D6">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D7">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="C8">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D8">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C9">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D9">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="C10">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D10">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="C11">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D11">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C12">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D12">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>0.625</v>
+      </c>
+      <c r="C13">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D13">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="C14">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D14">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C15">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D15">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>0.52631578947368418</v>
+      </c>
+      <c r="C16">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D16">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>-2.8151342213403812</v>
+      </c>
+      <c r="D17">
+        <v>-1.5745621944456423</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FB187D-15C0-43CA-AD02-56120D743DBF}">
+  <dimension ref="B2:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="C2:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>-1.481808952049902</v>
+      </c>
+      <c r="D2">
+        <v>-0.888028628885347</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>-1.753614744712834</v>
+      </c>
+      <c r="D3">
+        <v>-1.0588485469610605</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>-1.9651123628887428</v>
+      </c>
+      <c r="D4">
+        <v>-1.1810136613341424</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>-2.1380411067164706</v>
+      </c>
+      <c r="D5">
+        <v>-1.2762972540302873</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>-2.284059670133626</v>
+      </c>
+      <c r="D6">
+        <v>-1.3544570538758913</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>-2.409929774269194</v>
+      </c>
+      <c r="D7">
+        <v>-1.4207160558888237</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>-2.5204061807892866</v>
+      </c>
+      <c r="D8">
+        <v>-1.4782232177176724</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>-2.618744548302393</v>
+      </c>
+      <c r="D9">
+        <v>-1.529020563002933</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>-2.707296933212337</v>
+      </c>
+      <c r="D10">
+        <v>-1.5745095724063298</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>-2.7878046333553437</v>
+      </c>
+      <c r="D11">
+        <v>-1.615694095710541</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>-2.8615881830670986</v>
+      </c>
+      <c r="D12">
+        <v>-1.6533177685141944</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>-2.929671704669711</v>
+      </c>
+      <c r="D13">
+        <v>-1.687946883923781</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>-2.9928641592590233</v>
+      </c>
+      <c r="D14">
+        <v>-1.720022629130637</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>-3.0518151796403554</v>
+      </c>
+      <c r="D15">
+        <v>-1.749895412063539</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>-3.1070539927638925</v>
+      </c>
+      <c r="D16">
+        <v>-1.7778481669659518</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>-3.1590172430847767</v>
+      </c>
+      <c r="D17">
+        <v>-1.804112630621214</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>-3.208069266870878</v>
+      </c>
+      <c r="D18">
+        <v>-1.8288809899573937</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>-3.254517138697704</v>
+      </c>
+      <c r="D19">
+        <v>-1.8523143956559147</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>-3.298622015502674</v>
+      </c>
+      <c r="D20">
+        <v>-1.874549302039797</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>-3.340607817489232</v>
+      </c>
+      <c r="D21">
+        <v>-1.8957022669526944</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>-3.3806679579650676</v>
+      </c>
+      <c r="D22">
+        <v>-1.9158736397014877</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>-3.418970624105525</v>
+      </c>
+      <c r="D23">
+        <v>-1.9351504324757016</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>-3.4556629667379735</v>
+      </c>
+      <c r="D24">
+        <v>-1.9536085829718761</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>-3.490874457162234</v>
+      </c>
+      <c r="D25">
+        <v>-1.9713147567976945</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>-3.5247196018618765</v>
+      </c>
+      <c r="D26">
+        <v>-1.9883277975880504</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>-3.557300157833788</v>
+      </c>
+      <c r="D27">
+        <v>-2.004699904344297</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-3.588706951934939</v>
+      </c>
+      <c r="D28">
+        <v>-2.020477595331163</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-3.619021389200442</v>
+      </c>
+      <c r="D29">
+        <v>-2.0357025033345537</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-3.6483167093258837</v>
+      </c>
+      <c r="D30">
+        <v>-2.0504120364866463</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>-3.676659041242307</v>
+      </c>
+      <c r="D31">
+        <v>-2.0646399310313206</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>-3.7041082928560463</v>
+      </c>
+      <c r="D32">
+        <v>-2.0784167165619154</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>-3.730718906106976</v>
+      </c>
+      <c r="D33">
+        <v>-2.0917701098483708</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>-3.756540501485865</v>
+      </c>
+      <c r="D34">
+        <v>-2.104725350016387</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>-3.781618429735335</v>
+      </c>
+      <c r="D35">
+        <v>-2.1173054852502697</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>-3.805994247398231</v>
+      </c>
+      <c r="D36">
+        <v>-2.129531619201696</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>-3.8297061280248994</v>
+      </c>
+      <c r="D37">
+        <v>-2.1414231237052266</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>-3.8527892192032778</v>
+      </c>
+      <c r="D38">
+        <v>-2.1529978231909594</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>-3.8752759533203784</v>
+      </c>
+      <c r="D39">
+        <v>-2.164272155185507</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>-3.8971963203060866</v>
+      </c>
+      <c r="D40">
+        <v>-2.1752613105376226</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>-3.9185781067778596</v>
+      </c>
+      <c r="D41">
+        <v>-2.1859793563548915</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>-3.9394471050124413</v>
+      </c>
+      <c r="D42">
+        <v>-2.1964393441595327</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>-3.9598273006270044</v>
+      </c>
+      <c r="D43">
+        <v>-2.2066534053349693</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>-3.9598273006270044</v>
+      </c>
+      <c r="D44">
+        <v>-2.2066534053349693</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>-3.9992091645771475</v>
+      </c>
+      <c r="D45">
+        <v>-2.2263881701285344</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>-4.018251160615541</v>
+      </c>
+      <c r="D46">
+        <v>-2.235929250120222</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>-4.036885259738363</v>
+      </c>
+      <c r="D47">
+        <v>-2.2452652826250317</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>-4.055128550785728</v>
+      </c>
+      <c r="D48">
+        <v>-2.254404893782802</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>-4.07299707119443</v>
+      </c>
+      <c r="D49">
+        <v>-2.2633561766948374</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>-4.090505892747604</v>
+      </c>
+      <c r="D50">
+        <v>-2.272126734452527</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386A095C-34DA-47DB-AC26-19D8FEF159CC}">
+  <dimension ref="B2:D50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="C2:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>-1.7594159616028677</v>
+      </c>
+      <c r="D2">
+        <v>-0.882088261830911</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>-2.2224831826048344</v>
+      </c>
+      <c r="D3">
+        <v>-1.056132586176056</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>-2.205898430066428</v>
+      </c>
+      <c r="D4">
+        <v>-1.1791201343841646</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>-2.358877394801772</v>
+      </c>
+      <c r="D5">
+        <v>-1.2749202723423638</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>-2.7359486939771815</v>
+      </c>
+      <c r="D6">
+        <v>-1.3537693313632913</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>-2.6727742091765743</v>
+      </c>
+      <c r="D7">
+        <v>-1.419975329115474</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>-2.86110118405493</v>
+      </c>
+      <c r="D8">
+        <v>-1.4777394578435787</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>-2.7952562917985446</v>
+      </c>
+      <c r="D9">
+        <v>-1.5285139416829583</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>-2.55273077128498</v>
+      </c>
+      <c r="D10">
+        <v>-1.573423374611418</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>-2.3663259973528827</v>
+      </c>
+      <c r="D11">
+        <v>-1.6122233285418228</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>-3.081189664501449</v>
+      </c>
+      <c r="D12">
+        <v>-1.652780839593072</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>-3.444095588783781</v>
+      </c>
+      <c r="D13">
+        <v>-1.687628363633385</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>-3.505877708952243</v>
+      </c>
+      <c r="D14">
+        <v>-1.7195276558173398</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>-3.327940835415834</v>
+      </c>
+      <c r="D15">
+        <v>-1.7493561999331184</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>-3.130410092383699</v>
+      </c>
+      <c r="D16">
+        <v>-1.7774545329668452</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>-3.599625052034639</v>
+      </c>
+      <c r="D17">
+        <v>-1.8038665732718593</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>-3.6859555329542784</v>
+      </c>
+      <c r="D18">
+        <v>-1.8283929493131619</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>-2.771082805137548</v>
+      </c>
+      <c r="D19">
+        <v>-1.8502896945200356</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>-3.052516353247156</v>
+      </c>
+      <c r="D20">
+        <v>-1.8737657385900683</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>-3.1981278248739824</v>
+      </c>
+      <c r="D21">
+        <v>-1.8951618065018991</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>-3.255515260386101</v>
+      </c>
+      <c r="D22">
+        <v>-1.9148728513190745</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>-3.2854014859181984</v>
+      </c>
+      <c r="D23">
+        <v>-1.9341655181690525</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>-3.544703359570091</v>
+      </c>
+      <c r="D24">
+        <v>-1.9531528414959118</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>-3.5635895912554325</v>
+      </c>
+      <c r="D25">
+        <v>-1.9711309625066242</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>-3.669619218415768</v>
+      </c>
+      <c r="D26">
+        <v>-1.9879251337473596</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>-3.471527615812694</v>
+      </c>
+      <c r="D27">
+        <v>-2.0033055275275578</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-2.8655517176820102</v>
+      </c>
+      <c r="D28">
+        <v>-2.0184467340570618</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-2.864199959432277</v>
+      </c>
+      <c r="D29">
+        <v>-2.0328892998062584</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-2.7781210721517806</v>
+      </c>
+      <c r="D30">
+        <v>-2.047145825383654</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>-3.121088150113482</v>
+      </c>
+      <c r="D31">
+        <v>-2.0633194400306976</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>-3.567182195782918</v>
+      </c>
+      <c r="D32">
+        <v>-2.0774777657347725</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>-3.5949367266836725</v>
+      </c>
+      <c r="D33">
+        <v>-2.090995813327852</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>-3.3579718410393764</v>
+      </c>
+      <c r="D34">
+        <v>-2.104075030962628</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>-3.2755416495034813</v>
+      </c>
+      <c r="D35">
+        <v>-2.1167090676189133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>-3.6203127133800765</v>
+      </c>
+      <c r="D36">
+        <v>-2.1291842957902296</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>-3.398659858432181</v>
+      </c>
+      <c r="D37">
+        <v>-2.140138446288017</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>-2.9554037774593493</v>
+      </c>
+      <c r="D38">
+        <v>-2.149486276442547</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>-3.1315986149937354</v>
+      </c>
+      <c r="D39">
+        <v>-2.1628575176175646</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>-3.2603136615483366</v>
+      </c>
+      <c r="D40">
+        <v>-2.174338344369466</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>-3.3508314760866407</v>
+      </c>
+      <c r="D41">
+        <v>-2.184941446647757</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>-3.2052820732585245</v>
+      </c>
+      <c r="D42">
+        <v>-2.1955618195172315</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>-3.9677741461774123</v>
+      </c>
+      <c r="D43">
+        <v>-2.2062864609587387</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>-3.9677741461774123</v>
+      </c>
+      <c r="D44">
+        <v>-2.2062864609587387</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>-3.717030157835816</v>
+      </c>
+      <c r="D45">
+        <v>-2.2262275721563998</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>-4.021124241490108</v>
+      </c>
+      <c r="D46">
+        <v>-2.2355245231910947</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>-3.4609081386642004</v>
+      </c>
+      <c r="D47">
+        <v>-2.244597118809642</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>-3.3219057041469293</v>
+      </c>
+      <c r="D48">
+        <v>-2.253190184184369</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>-3.7559736529633687</v>
+      </c>
+      <c r="D49">
+        <v>-2.263006275160301</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>-3.4061646975807705</v>
+      </c>
+      <c r="D50">
+        <v>-2.2713141596961646</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/mix.xlsx
+++ b/xlsx/mix.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mix\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FEC6ACD-3F79-4B88-9EBC-04265F4C5047}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D437B05-6ECA-4A19-9267-AC6A1B6878C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="1" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="4" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="可压" sheetId="9" r:id="rId1"/>
     <sheet name="不可压" sheetId="10" r:id="rId2"/>
     <sheet name="mix 50x50" sheetId="11" r:id="rId3"/>
     <sheet name="缩减积分" sheetId="12" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>L2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +37,6 @@
   <si>
     <t>H1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>u/p</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>h</t>
@@ -54,7 +51,46 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Quad</t>
+    <t>square_Tri3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>square_Quad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nu:np</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantilever_Tri3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantilever_Quad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cantilever_Tri3</t>
+  </si>
+  <si>
+    <t>cantilever_Tri3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nu:np</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -120,6 +156,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,20 +471,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FB187D-15C0-43CA-AD02-56120D743DBF}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -456,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1339,7 +1379,7 @@
         <v>-2.0782759771447732</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1365,7 +1405,7 @@
         <v>-2.0872286385967374</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -1389,6 +1429,21 @@
       </c>
       <c r="H50">
         <v>-2.0960004986258562</v>
+      </c>
+      <c r="I50" t="s">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>-2.84513537307887</v>
+      </c>
+      <c r="L50">
+        <v>-1.42125684572288</v>
+      </c>
+      <c r="O50">
+        <v>-3.6226045553300601</v>
+      </c>
+      <c r="P50">
+        <v>-1.49951698669495</v>
       </c>
     </row>
   </sheetData>
@@ -1400,20 +1455,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386A095C-34DA-47DB-AC26-19D8FEF159CC}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="10.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1422,10 +1482,10 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -2173,7 +2233,7 @@
         <v>3.8339840524116598E-8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>49</v>
       </c>
@@ -2196,7 +2256,7 @@
         <v>3.7062092759106111E-8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>50</v>
       </c>
@@ -2217,6 +2277,21 @@
       </c>
       <c r="H50">
         <v>3.5850047604629123E-8</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50">
+        <v>7.8086215476867705E-4</v>
+      </c>
+      <c r="L50">
+        <v>1.21629993713895E-2</v>
+      </c>
+      <c r="O50">
+        <v>8.6730318821674895E-3</v>
+      </c>
+      <c r="P50">
+        <v>0.68617574135319004</v>
       </c>
     </row>
   </sheetData>
@@ -2228,20 +2303,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C31BBA-8D59-4164-9153-B4543CC1DA22}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="11" max="11" width="10.875" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -2252,488 +2335,899 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>40</v>
       </c>
       <c r="B2">
-        <v>1.25</v>
+        <v>3.0945865556216536</v>
       </c>
       <c r="C2">
-        <v>-3.4046503896820157</v>
+        <v>-3.4041177948724615</v>
       </c>
       <c r="D2">
-        <v>-2.2713090148191486</v>
+        <v>-2.2713069461361224</v>
       </c>
       <c r="F2">
-        <v>1.25</v>
+        <v>3.0945865556216536</v>
       </c>
       <c r="G2">
-        <v>-1.1021649328891427</v>
+        <v>-3.5661202486529966</v>
       </c>
       <c r="H2">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2.2817333503686417</v>
+      </c>
+      <c r="J2">
+        <v>3.1058930465081049</v>
+      </c>
+      <c r="K2">
+        <v>-3.1856796088442794</v>
+      </c>
+      <c r="L2">
+        <v>-1.6304888698115383</v>
+      </c>
+      <c r="N2">
+        <v>3.1058930465081049</v>
+      </c>
+      <c r="O2">
+        <v>-3.9023057525128855</v>
+      </c>
+      <c r="P2">
+        <v>-1.6167164121135416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>41</v>
       </c>
       <c r="B3">
-        <v>1.2195121951219512</v>
+        <v>2.9489795918367347</v>
       </c>
       <c r="C3">
-        <v>-3.4045300291279843</v>
+        <v>-3.4041574639397805</v>
       </c>
       <c r="D3">
-        <v>-2.2713077951106961</v>
+        <v>-2.2713072265040219</v>
       </c>
       <c r="F3">
-        <v>1.2195121951219512</v>
+        <v>2.9489795918367347</v>
       </c>
       <c r="G3">
-        <v>-1.1021649328891427</v>
+        <v>-3.5639943098915725</v>
       </c>
       <c r="H3">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2.2713755776662499</v>
+      </c>
+      <c r="J3">
+        <v>2.9584415584415584</v>
+      </c>
+      <c r="K3">
+        <v>-3.1855021698800758</v>
+      </c>
+      <c r="L3">
+        <v>-1.6304325751772482</v>
+      </c>
+      <c r="N3">
+        <v>2.9584415584415584</v>
+      </c>
+      <c r="O3">
+        <v>-3.9027194207320206</v>
+      </c>
+      <c r="P3">
+        <v>-1.6166363311462215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>42</v>
       </c>
       <c r="B4">
-        <v>1.1904761904761905</v>
+        <v>2.8134126554894539</v>
       </c>
       <c r="C4">
-        <v>-3.4046102935388811</v>
+        <v>-3.4042182865306465</v>
       </c>
       <c r="D4">
-        <v>-2.2713078785870362</v>
+        <v>-2.2713076463148028</v>
       </c>
       <c r="F4">
-        <v>1.1904761904761905</v>
+        <v>2.8134126554894539</v>
       </c>
       <c r="G4">
-        <v>-1.1021649328891427</v>
+        <v>-3.5725582587651665</v>
       </c>
       <c r="H4">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2.2821090690397674</v>
+      </c>
+      <c r="J4">
+        <v>2.8212467318012937</v>
+      </c>
+      <c r="K4">
+        <v>-3.1851428247914493</v>
+      </c>
+      <c r="L4">
+        <v>-1.6302770577602725</v>
+      </c>
+      <c r="N4">
+        <v>2.8212467318012937</v>
+      </c>
+      <c r="O4">
+        <v>-3.9020712495284746</v>
+      </c>
+      <c r="P4">
+        <v>-1.6166597563605041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>43</v>
       </c>
       <c r="B5">
-        <v>1.1627906976744187</v>
+        <v>2.6869834710743801</v>
       </c>
       <c r="C5">
-        <v>-3.4046778356756211</v>
+        <v>-3.4042298728491849</v>
       </c>
       <c r="D5">
-        <v>-2.2713086888823315</v>
+        <v>-2.27130856081979</v>
       </c>
       <c r="F5">
-        <v>1.1627906976744187</v>
+        <v>2.6869834710743801</v>
       </c>
       <c r="G5">
-        <v>-1.1021649328891427</v>
+        <v>-3.5694478092343718</v>
       </c>
       <c r="H5">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2.2620327352338228</v>
+      </c>
+      <c r="J5">
+        <v>2.6933788754598003</v>
+      </c>
+      <c r="K5">
+        <v>-3.1850691295458131</v>
+      </c>
+      <c r="L5">
+        <v>-1.6303260421162706</v>
+      </c>
+      <c r="N5">
+        <v>2.6933788754598003</v>
+      </c>
+      <c r="O5">
+        <v>-3.9017901964598454</v>
+      </c>
+      <c r="P5">
+        <v>-1.6166161424768026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>44</v>
       </c>
       <c r="B6">
-        <v>1.1363636363636365</v>
+        <v>2.6869834710743801</v>
       </c>
       <c r="C6">
-        <v>-3.4046528561509897</v>
+        <v>-3.4042074801895006</v>
       </c>
       <c r="D6">
-        <v>-2.2713083694031089</v>
+        <v>-2.2713082491615784</v>
       </c>
       <c r="F6">
-        <v>1.1363636363636365</v>
+        <v>2.568888888888889</v>
       </c>
       <c r="G6">
-        <v>-1.1021649328891427</v>
+        <v>-3.5779271630495759</v>
       </c>
       <c r="H6">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2.2784220065629546</v>
+      </c>
+      <c r="J6">
+        <v>2.5740112994350284</v>
+      </c>
+      <c r="K6">
+        <v>-3.184575346254463</v>
+      </c>
+      <c r="L6">
+        <v>-1.630122372267873</v>
+      </c>
+      <c r="N6">
+        <v>2.5740112994350284</v>
+      </c>
+      <c r="O6">
+        <v>-3.9011773269917391</v>
+      </c>
+      <c r="P6">
+        <v>-1.6165794469169392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>45</v>
       </c>
       <c r="B7">
-        <v>1.1111111111111112</v>
+        <v>2.4584120982986768</v>
       </c>
       <c r="C7">
-        <v>-3.4048870942437022</v>
+        <v>-3.4043864143535272</v>
       </c>
       <c r="D7">
-        <v>-2.2713101550867867</v>
+        <v>-2.2713086147438215</v>
       </c>
       <c r="F7">
-        <v>1.1111111111111112</v>
+        <v>2.4584120982986768</v>
       </c>
       <c r="G7">
-        <v>-1.1021649328891427</v>
+        <v>-3.5766761926580739</v>
       </c>
       <c r="H7">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2.2675754354656186</v>
+      </c>
+      <c r="J7">
+        <v>2.4624069180879173</v>
+      </c>
+      <c r="K7">
+        <v>-3.184094881805521</v>
+      </c>
+      <c r="L7">
+        <v>-1.6299059177824131</v>
+      </c>
+      <c r="N7">
+        <v>2.4624069180879173</v>
+      </c>
+      <c r="O7">
+        <v>-3.9000742271824587</v>
+      </c>
+      <c r="P7">
+        <v>-1.6165311479215621</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>46</v>
       </c>
       <c r="B8">
-        <v>1.0869565217391304</v>
+        <v>2.3549117247623359</v>
       </c>
       <c r="C8">
-        <v>-3.4049935456962062</v>
+        <v>-3.4044808003590585</v>
       </c>
       <c r="D8">
-        <v>-2.2713097595973677</v>
+        <v>-2.2713089011787599</v>
       </c>
       <c r="F8">
-        <v>1.0869565217391304</v>
+        <v>2.3549117247623359</v>
       </c>
       <c r="G8">
-        <v>-1.1021649328891427</v>
+        <v>-3.5866751344798078</v>
       </c>
       <c r="H8">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2.2662889959417134</v>
+      </c>
+      <c r="J8">
+        <v>2.3579068430132262</v>
+      </c>
+      <c r="K8">
+        <v>-3.1834603068070515</v>
+      </c>
+      <c r="L8">
+        <v>-1.6296156805754571</v>
+      </c>
+      <c r="N8">
+        <v>2.3579068430132262</v>
+      </c>
+      <c r="O8">
+        <v>-3.8995147984559675</v>
+      </c>
+      <c r="P8">
+        <v>-1.6164887396606371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>47</v>
       </c>
       <c r="B9">
-        <v>1.0638297872340425</v>
+        <v>2.2578125</v>
       </c>
       <c r="C9">
-        <v>-3.405260692988147</v>
+        <v>-3.4045446274553046</v>
       </c>
       <c r="D9">
-        <v>-2.2713097540489668</v>
+        <v>-2.271308832019618</v>
       </c>
       <c r="F9">
-        <v>1.0638297872340425</v>
+        <v>2.2578125</v>
       </c>
       <c r="G9">
-        <v>-1.1021649328891427</v>
+        <v>-3.6017006523193249</v>
       </c>
       <c r="H9">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2.2584301684361394</v>
+      </c>
+      <c r="J9">
+        <v>2.2599206349206349</v>
+      </c>
+      <c r="K9">
+        <v>-3.1826095192967836</v>
+      </c>
+      <c r="L9">
+        <v>-1.6292257955437339</v>
+      </c>
+      <c r="N9">
+        <v>2.2599206349206349</v>
+      </c>
+      <c r="O9">
+        <v>-3.8975421047676893</v>
+      </c>
+      <c r="P9">
+        <v>-1.6163365105819247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>48</v>
       </c>
       <c r="B10">
-        <v>1.0416666666666667</v>
+        <v>2.166597251145356</v>
       </c>
       <c r="C10">
-        <v>-3.4052315288110595</v>
+        <v>-3.4046691583097903</v>
       </c>
       <c r="D10">
-        <v>-2.2713101388624941</v>
+        <v>-2.2713092121175285</v>
       </c>
       <c r="F10">
-        <v>1.0416666666666667</v>
+        <v>2.166597251145356</v>
       </c>
       <c r="G10">
-        <v>-1.1021649328891427</v>
+        <v>-3.6268354101369984</v>
       </c>
       <c r="H10">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2.2556279186453203</v>
+      </c>
+      <c r="J10">
+        <v>2.1679179443798247</v>
+      </c>
+      <c r="K10">
+        <v>-3.1813553271551291</v>
+      </c>
+      <c r="L10">
+        <v>-1.6286038314384472</v>
+      </c>
+      <c r="N10">
+        <v>2.1679179443798247</v>
+      </c>
+      <c r="O10">
+        <v>-3.8902307153687263</v>
+      </c>
+      <c r="P10">
+        <v>-1.6161653936657245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>49</v>
       </c>
       <c r="B11">
-        <v>1.0204081632653061</v>
+        <v>2.0808</v>
       </c>
       <c r="C11">
-        <v>-3.4053907676898798</v>
+        <v>-3.4048760018512043</v>
       </c>
       <c r="D11">
-        <v>-2.2713099256233797</v>
+        <v>-2.271309284620624</v>
       </c>
       <c r="F11">
-        <v>1.0204081632653061</v>
+        <v>2.0808</v>
       </c>
       <c r="G11">
-        <v>-1.1021649328891427</v>
+        <v>-3.6956359350995078</v>
       </c>
       <c r="H11">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2.2381910526728102</v>
+      </c>
+      <c r="J11">
+        <v>2.0814213197969544</v>
+      </c>
+      <c r="K11">
+        <v>-3.1788630611083595</v>
+      </c>
+      <c r="L11">
+        <v>-1.6272581090295404</v>
+      </c>
+      <c r="N11">
+        <v>2.0814213197969544</v>
+      </c>
+      <c r="O11">
+        <v>-3.8730239344795341</v>
+      </c>
+      <c r="P11">
+        <v>-1.6157682323297502</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>-3.4071952387049778</v>
+        <v>-3.4070022216215801</v>
       </c>
       <c r="D12">
-        <v>-2.2713116545204795</v>
+        <v>-2.2713116950433658</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>-1.1021649328891427</v>
+        <v>-1.4049680129151332</v>
       </c>
       <c r="H12">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-1.4489461808356812</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>-3.2868064300946735</v>
+      </c>
+      <c r="L12">
+        <v>-1.4979475452101538</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>-0.43917380240802611</v>
+      </c>
+      <c r="P12">
+        <v>-0.28037437686487504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>51</v>
       </c>
       <c r="B13">
-        <v>0.98039215686274506</v>
+        <v>1.9238165680473374</v>
       </c>
       <c r="C13">
-        <v>-3.4191629807368802</v>
+        <v>-3.4195834708132242</v>
       </c>
       <c r="D13">
-        <v>-2.2713218457469968</v>
+        <v>-2.2713206643048287</v>
       </c>
       <c r="F13">
-        <v>0.98039215686274506</v>
+        <v>1.9238165680473374</v>
       </c>
       <c r="G13">
-        <v>-1.1021649328891427</v>
+        <v>-0.77329428884349127</v>
       </c>
       <c r="H13">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.26889727480798203</v>
+      </c>
+      <c r="J13">
+        <v>1.9232645403377111</v>
+      </c>
+      <c r="K13">
+        <v>-1.0474156797025278</v>
+      </c>
+      <c r="L13">
+        <v>-0.59824110338749525</v>
+      </c>
+      <c r="N13">
+        <v>1.9232645403377111</v>
+      </c>
+      <c r="O13">
+        <v>-0.43630947297040495</v>
+      </c>
+      <c r="P13">
+        <v>-0.10955296906811909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>52</v>
       </c>
       <c r="B14">
-        <v>0.96153846153846156</v>
+        <v>1.8519045923816304</v>
       </c>
       <c r="C14">
-        <v>-3.4344100198481851</v>
+        <v>-3.4204160080474884</v>
       </c>
       <c r="D14">
-        <v>-2.2713296875764777</v>
+        <v>-2.2713246105021776</v>
       </c>
       <c r="F14">
-        <v>0.96153846153846156</v>
+        <v>1.8519045923816304</v>
       </c>
       <c r="G14">
-        <v>-1.1021649328891427</v>
+        <v>-0.87341895224544686</v>
       </c>
       <c r="H14">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.27668144157129243</v>
+      </c>
+      <c r="J14">
+        <v>1.8508621467906472</v>
+      </c>
+      <c r="K14">
+        <v>-0.94284043983953247</v>
+      </c>
+      <c r="L14">
+        <v>-0.53187886225544911</v>
+      </c>
+      <c r="N14">
+        <v>1.8508621467906472</v>
+      </c>
+      <c r="O14">
+        <v>-0.4377252238451585</v>
+      </c>
+      <c r="P14">
+        <v>-0.10508771912210801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>53</v>
       </c>
       <c r="B15">
-        <v>0.94339622641509435</v>
+        <v>1.7839506172839505</v>
       </c>
       <c r="C15">
-        <v>-3.428302558261199</v>
+        <v>-3.4194717854971923</v>
       </c>
       <c r="D15">
-        <v>-2.2713341979527253</v>
+        <v>-2.2713237010390364</v>
       </c>
       <c r="F15">
-        <v>0.94339622641509435</v>
+        <v>1.7839506172839505</v>
       </c>
       <c r="G15">
-        <v>-1.1021649328891427</v>
+        <v>-0.72956460073810458</v>
       </c>
       <c r="H15">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.33425464833363816</v>
+      </c>
+      <c r="J15">
+        <v>1.7824726134585289</v>
+      </c>
+      <c r="K15">
+        <v>-0.89544802570219106</v>
+      </c>
+      <c r="L15">
+        <v>-0.50059663902645501</v>
+      </c>
+      <c r="N15">
+        <v>1.7824726134585289</v>
+      </c>
+      <c r="O15">
+        <v>-0.43696326581379391</v>
+      </c>
+      <c r="P15">
+        <v>-0.11294020666925986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>54</v>
       </c>
       <c r="B16">
-        <v>0.92592592592592593</v>
+        <v>1.7196694214876034</v>
       </c>
       <c r="C16">
-        <v>-3.4212494205814372</v>
+        <v>-3.421036481409236</v>
       </c>
       <c r="D16">
-        <v>-2.2713270182278413</v>
+        <v>-2.2713263414827511</v>
       </c>
       <c r="F16">
-        <v>0.92592592592592593</v>
+        <v>1.7196694214876034</v>
       </c>
       <c r="G16">
-        <v>-1.1021649328891427</v>
+        <v>-0.67331124913925089</v>
       </c>
       <c r="H16">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.27725477111039526</v>
+      </c>
+      <c r="J16">
+        <v>1.717804775869292</v>
+      </c>
+      <c r="K16">
+        <v>-0.85586348773277632</v>
+      </c>
+      <c r="L16">
+        <v>-0.47394644383675438</v>
+      </c>
+      <c r="N16">
+        <v>1.717804775869292</v>
+      </c>
+      <c r="O16">
+        <v>-0.43770110568391501</v>
+      </c>
+      <c r="P16">
+        <v>-0.12101863386417244</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>55</v>
       </c>
       <c r="B17">
-        <v>0.90909090909090906</v>
+        <v>1.6588010204081634</v>
       </c>
       <c r="C17">
-        <v>-3.4120519528443616</v>
+        <v>-3.4205263321767352</v>
       </c>
       <c r="D17">
-        <v>-2.2713290763362131</v>
+        <v>-2.2713294835059643</v>
       </c>
       <c r="F17">
-        <v>0.90909090909090906</v>
+        <v>1.6588010204081634</v>
       </c>
       <c r="G17">
-        <v>-1.1021649328891427</v>
+        <v>-1.3949206106531897</v>
       </c>
       <c r="H17">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.96290112873489009</v>
+      </c>
+      <c r="J17">
+        <v>1.6565934065934067</v>
+      </c>
+      <c r="K17">
+        <v>-0.83123992012685421</v>
+      </c>
+      <c r="L17">
+        <v>-0.45697762232892652</v>
+      </c>
+      <c r="N17">
+        <v>1.6565934065934067</v>
+      </c>
+      <c r="O17">
+        <v>-0.43585196245116786</v>
+      </c>
+      <c r="P17">
+        <v>-0.15303681215300338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>56</v>
       </c>
       <c r="B18">
-        <v>0.8928571428571429</v>
+        <v>1.6011080332409973</v>
       </c>
       <c r="C18">
-        <v>-3.4151807661218676</v>
+        <v>-3.4227261289595572</v>
       </c>
       <c r="D18">
-        <v>-2.2713349929582272</v>
+        <v>-2.2713323475578284</v>
       </c>
       <c r="F18">
-        <v>0.8928571428571429</v>
+        <v>1.6011080332409973</v>
       </c>
       <c r="G18">
-        <v>-1.1021649328891427</v>
+        <v>-0.80422045732098169</v>
       </c>
       <c r="H18">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-0.29155991780280061</v>
+      </c>
+      <c r="J18">
+        <v>1.5985964912280701</v>
+      </c>
+      <c r="K18">
+        <v>-0.80047686815773134</v>
+      </c>
+      <c r="L18">
+        <v>-0.43535454396131579</v>
+      </c>
+      <c r="N18">
+        <v>1.5985964912280701</v>
+      </c>
+      <c r="O18">
+        <v>-0.43642473248044472</v>
+      </c>
+      <c r="P18">
+        <v>-0.13733537622000866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>57</v>
       </c>
       <c r="B19">
-        <v>0.8771929824561403</v>
+        <v>1.5463733650416172</v>
       </c>
       <c r="C19">
-        <v>-3.4175371046923813</v>
+        <v>-3.4161917137681419</v>
       </c>
       <c r="D19">
-        <v>-2.2713306320998172</v>
+        <v>-2.2713352210512201</v>
       </c>
       <c r="F19">
-        <v>0.8771929824561403</v>
+        <v>1.5463733650416172</v>
       </c>
       <c r="G19">
-        <v>-1.1021649328891427</v>
+        <v>-0.58664363933601626</v>
       </c>
       <c r="H19">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-3.6145754880964616E-2</v>
+      </c>
+      <c r="J19">
+        <v>1.5435928324047583</v>
+      </c>
+      <c r="K19">
+        <v>-0.78258011086831636</v>
+      </c>
+      <c r="L19">
+        <v>-0.42248977264442888</v>
+      </c>
+      <c r="N19">
+        <v>1.5435928324047583</v>
+      </c>
+      <c r="O19">
+        <v>-0.43708462088197225</v>
+      </c>
+      <c r="P19">
+        <v>-0.14072331700197319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>58</v>
       </c>
       <c r="B20">
-        <v>0.86206896551724133</v>
+        <v>1.4943981614478599</v>
       </c>
       <c r="C20">
-        <v>-3.4226453765607427</v>
+        <v>-3.4199482531533016</v>
       </c>
       <c r="D20">
-        <v>-2.2713397904277537</v>
+        <v>-2.271341259605224</v>
       </c>
       <c r="F20">
-        <v>0.86206896551724133</v>
+        <v>1.4943981614478599</v>
       </c>
       <c r="G20">
-        <v>-1.1021649328891427</v>
+        <v>-0.59222485936368485</v>
       </c>
       <c r="H20">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-4.8320541836474405E-2</v>
+      </c>
+      <c r="J20">
+        <v>1.4913799374408963</v>
+      </c>
+      <c r="K20">
+        <v>-0.79443985651487603</v>
+      </c>
+      <c r="L20">
+        <v>-0.43091536854344237</v>
+      </c>
+      <c r="N20">
+        <v>1.4913799374408963</v>
+      </c>
+      <c r="O20">
+        <v>-0.43675251816569316</v>
+      </c>
+      <c r="P20">
+        <v>-0.10400016703206824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>59</v>
       </c>
       <c r="B21">
-        <v>0.84745762711864403</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="C21">
-        <v>-3.4271484663426786</v>
+        <v>-3.4252738740700996</v>
       </c>
       <c r="D21">
-        <v>-2.2713478787627288</v>
+        <v>-2.2713538642279349</v>
       </c>
       <c r="F21">
-        <v>0.84745762711864403</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="G21">
-        <v>-1.1021649328891427</v>
+        <v>-0.58750378408283765</v>
       </c>
       <c r="H21">
-        <v>-1.1480094931898146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>-2.9863138746900407E-2</v>
+      </c>
+      <c r="J21">
+        <v>1.4417721518987341</v>
+      </c>
+      <c r="K21">
+        <v>-0.76319937416066175</v>
+      </c>
+      <c r="L21">
+        <v>-0.40833273453889413</v>
+      </c>
+      <c r="N21">
+        <v>1.4417721518987341</v>
+      </c>
+      <c r="O21">
+        <v>-0.43702180466483692</v>
+      </c>
+      <c r="P21">
+        <v>-0.12392881814708169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>60</v>
       </c>
       <c r="B22">
-        <v>0.83333333333333337</v>
+        <v>1.3980112872883634</v>
       </c>
       <c r="C22">
-        <v>-3.4244457748932158</v>
+        <v>-3.425207865577093</v>
       </c>
       <c r="D22">
-        <v>-2.2713579446441718</v>
+        <v>-2.271358547063429</v>
       </c>
       <c r="F22">
-        <v>0.83333333333333337</v>
+        <v>1.3980112872883634</v>
       </c>
       <c r="G22">
-        <v>-1.1021649328891427</v>
+        <v>-0.58043366551849485</v>
       </c>
       <c r="H22">
-        <v>-1.1480094931898146</v>
+        <v>-2.1582995931193595E-2</v>
+      </c>
+      <c r="J22">
+        <v>1.3945990068702809</v>
+      </c>
+      <c r="K22">
+        <v>-0.74455861541600721</v>
+      </c>
+      <c r="L22">
+        <v>-0.39431707225014911</v>
+      </c>
+      <c r="N22">
+        <v>1.3945990068702809</v>
+      </c>
+      <c r="O22">
+        <v>-0.4369200764909037</v>
+      </c>
+      <c r="P22">
+        <v>-9.8254037528815077E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2745,15 +3239,683 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9684DE1-CE80-428C-907B-F76A11B968A7}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="26.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>7.2892561983471076</v>
+      </c>
+      <c r="C2">
+        <v>-3.0424433861490194</v>
+      </c>
+      <c r="D2">
+        <v>-1.8737757078852717</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>6.125</v>
+      </c>
+      <c r="C3">
+        <v>-3.0435810127276248</v>
+      </c>
+      <c r="D3">
+        <v>-1.8737727375611124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5.2189349112426031</v>
+      </c>
+      <c r="C4">
+        <v>-3.0440660026020332</v>
+      </c>
+      <c r="D4">
+        <v>-1.8737712876407731</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4.5</v>
+      </c>
+      <c r="C5">
+        <v>-3.0451626077106901</v>
+      </c>
+      <c r="D5">
+        <v>-1.8737667040566246</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3.92</v>
+      </c>
+      <c r="C6">
+        <v>-3.0435106173602779</v>
+      </c>
+      <c r="D6">
+        <v>-1.8737714010838882</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3.4453125</v>
+      </c>
+      <c r="C7">
+        <v>-3.0440120335737788</v>
+      </c>
+      <c r="D7">
+        <v>-1.8737704392232626</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3.0519031141868513</v>
+      </c>
+      <c r="C8">
+        <v>-3.0444569284903906</v>
+      </c>
+      <c r="D8">
+        <v>-1.873769635322666</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2.7222222222222223</v>
+      </c>
+      <c r="C9">
+        <v>-3.0450145880437662</v>
+      </c>
+      <c r="D9">
+        <v>-1.87376801877987</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2.4432132963988922</v>
+      </c>
+      <c r="C10">
+        <v>-3.0453355821848187</v>
+      </c>
+      <c r="D10">
+        <v>-1.8737662853479564</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2.2050000000000001</v>
+      </c>
+      <c r="C11">
+        <v>-3.0458923953170203</v>
+      </c>
+      <c r="D11">
+        <v>-1.873766633871617</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>-3.0525840864407914</v>
+      </c>
+      <c r="D12">
+        <v>-1.8737618209874072</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1.8223140495867769</v>
+      </c>
+      <c r="C13">
+        <v>-3.0799827722275719</v>
+      </c>
+      <c r="D13">
+        <v>-1.873736335392149</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1.6672967863894139</v>
+      </c>
+      <c r="C14">
+        <v>-3.0645313910619212</v>
+      </c>
+      <c r="D14">
+        <v>-1.8737358289146786</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1.53125</v>
+      </c>
+      <c r="C15">
+        <v>-3.0827663461159953</v>
+      </c>
+      <c r="D15">
+        <v>-1.8737325635626494</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1.4112</v>
+      </c>
+      <c r="C16">
+        <v>-3.0934879406750246</v>
+      </c>
+      <c r="D16">
+        <v>-1.8737373051475452</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1.3047337278106508</v>
+      </c>
+      <c r="C17">
+        <v>-3.1134372059261102</v>
+      </c>
+      <c r="D17">
+        <v>-1.873741508396604</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1.2098765432098766</v>
+      </c>
+      <c r="C18">
+        <v>-3.1451678774141083</v>
+      </c>
+      <c r="D18">
+        <v>-1.873745901132059</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1.125</v>
+      </c>
+      <c r="C19">
+        <v>-3.2621026081829441</v>
+      </c>
+      <c r="D19">
+        <v>-1.8737204552809048</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1.0487514863258025</v>
+      </c>
+      <c r="C20">
+        <v>-3.3207418518874432</v>
+      </c>
+      <c r="D20">
+        <v>-1.8736979201773387</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.98</v>
+      </c>
+      <c r="C21">
+        <v>-3.320740306588593</v>
+      </c>
+      <c r="D21">
+        <v>-1.8736979146606489</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.91779396462018725</v>
+      </c>
+      <c r="C22">
+        <v>-3.3207413289923515</v>
+      </c>
+      <c r="D22">
+        <v>-1.8736979184572822</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0.861328125</v>
+      </c>
+      <c r="C23">
+        <v>-3.3207410806154303</v>
+      </c>
+      <c r="D23">
+        <v>-1.8736979180022484</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0.80991735537190079</v>
+      </c>
+      <c r="C24">
+        <v>-3.320741944936807</v>
+      </c>
+      <c r="D24">
+        <v>-1.8736979170425938</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>0.76297577854671284</v>
+      </c>
+      <c r="C25">
+        <v>-3.3207418735024001</v>
+      </c>
+      <c r="D25">
+        <v>-1.873697916886812</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>0.72</v>
+      </c>
+      <c r="C26">
+        <v>-3.3207415750034732</v>
+      </c>
+      <c r="D26">
+        <v>-1.8736979174968256</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="C27">
+        <v>-3.3207415294164</v>
+      </c>
+      <c r="D27">
+        <v>-1.8736979173059303</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>0.64426588750913072</v>
+      </c>
+      <c r="C28">
+        <v>-3.3207416607742122</v>
+      </c>
+      <c r="D28">
+        <v>-1.8736979174130728</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>0.61080332409972304</v>
+      </c>
+      <c r="C29">
+        <v>-3.3207416847967068</v>
+      </c>
+      <c r="D29">
+        <v>-1.8736979176337942</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>0.57988165680473369</v>
+      </c>
+      <c r="C30">
+        <v>-3.3207416817537041</v>
+      </c>
+      <c r="D30">
+        <v>-1.8736979173456849</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>0.55125000000000002</v>
+      </c>
+      <c r="C31">
+        <v>-3.3207416589308325</v>
+      </c>
+      <c r="D31">
+        <v>-1.8736979173860524</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0.52468768590124926</v>
+      </c>
+      <c r="C32">
+        <v>-3.320741659725174</v>
+      </c>
+      <c r="D32">
+        <v>-1.8736979173837987</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32">
+        <v>-3.6265374719062802</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-4.5931230233936597E-6</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB3ECC-B42E-488F-9457-AC93EEC64F44}">
+  <dimension ref="B1:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>7.5432372505543235</v>
+      </c>
+      <c r="C2">
+        <v>-2.3915226979988531</v>
+      </c>
+      <c r="D2">
+        <v>-1.2315505212561189</v>
+      </c>
+      <c r="F2">
+        <v>1800</v>
+      </c>
+      <c r="G2">
+        <v>1.89</v>
+      </c>
+      <c r="H2">
+        <v>-2.0879851370063398</v>
+      </c>
+      <c r="I2">
+        <v>-1.0857192764448</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>6.3</v>
+      </c>
+      <c r="C3">
+        <v>-2.3914795590390256</v>
+      </c>
+      <c r="D3">
+        <v>-1.2314084169521953</v>
+      </c>
+      <c r="F3">
+        <v>1835</v>
+      </c>
+      <c r="G3">
+        <v>1.85395095367847</v>
+      </c>
+      <c r="H3">
+        <v>-2.0898363995717002</v>
+      </c>
+      <c r="I3">
+        <v>-1.0681264483372901</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5.3406593406593403</v>
+      </c>
+      <c r="C4">
+        <v>-2.3909405813555922</v>
+      </c>
+      <c r="D4">
+        <v>-1.2312865511934377</v>
+      </c>
+      <c r="F4">
+        <v>1870</v>
+      </c>
+      <c r="G4">
+        <v>1.8192513368983958</v>
+      </c>
+      <c r="H4">
+        <v>-2.0464519469414002</v>
+      </c>
+      <c r="I4">
+        <v>-1.0622292551558199</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4.5849056603773581</v>
+      </c>
+      <c r="C5">
+        <v>-2.3879366469861587</v>
+      </c>
+      <c r="D5">
+        <v>-1.2290331920296367</v>
+      </c>
+      <c r="F5">
+        <v>2010</v>
+      </c>
+      <c r="G5">
+        <v>1.6925373134328301</v>
+      </c>
+      <c r="H5">
+        <v>-1.9383680049087999</v>
+      </c>
+      <c r="I5">
+        <v>-1.00661759653969</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3.9789473684210526</v>
+      </c>
+      <c r="C6">
+        <v>-2.3873870015919185</v>
+      </c>
+      <c r="D6">
+        <v>-1.2304817774549748</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3.485655737704918</v>
+      </c>
+      <c r="C7">
+        <v>-2.3886247844225741</v>
+      </c>
+      <c r="D7">
+        <v>-1.2305620546822198</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3.0787330316742083</v>
+      </c>
+      <c r="C8">
+        <v>-2.3874756395615204</v>
+      </c>
+      <c r="D8">
+        <v>-1.2300475026736915</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2.7391304347826089</v>
+      </c>
+      <c r="C9">
+        <v>-2.3867076175998578</v>
+      </c>
+      <c r="D9">
+        <v>-1.2297855111567408</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2.4527757750540737</v>
+      </c>
+      <c r="C10">
+        <v>-2.3819196639928819</v>
+      </c>
+      <c r="D10">
+        <v>-1.2278498697906801</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2.209090909090909</v>
+      </c>
+      <c r="C11">
+        <v>-2.3802621766152545</v>
+      </c>
+      <c r="D11">
+        <v>-1.2262612096605012</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>-2.4213309355530765</v>
+      </c>
+      <c r="D12">
+        <v>-1.1037036815107379</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1.8192513368983958</v>
+      </c>
+      <c r="C13">
+        <v>-0.60739261986227822</v>
+      </c>
+      <c r="D13">
+        <v>-0.28585471760563813</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1.6619443087445041</v>
+      </c>
+      <c r="C14">
+        <v>-0.52834525197527038</v>
+      </c>
+      <c r="D14">
+        <v>-0.21766013574081067</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1.5241935483870968</v>
+      </c>
+      <c r="C15">
+        <v>-0.52097474191342252</v>
+      </c>
+      <c r="D15">
+        <v>-0.21046811496138365</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1.4028865979381444</v>
+      </c>
+      <c r="C16">
+        <v>-0.47041011914700182</v>
+      </c>
+      <c r="D16">
+        <v>-0.16329444497759382</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1.2955064737242956</v>
+      </c>
+      <c r="C17">
+        <v>-0.44065043700748235</v>
+      </c>
+      <c r="D17">
+        <v>-0.13349946219612499</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1.2</v>
+      </c>
+      <c r="C18">
+        <v>-0.4145492508921535</v>
+      </c>
+      <c r="D18">
+        <v>-0.10594131278770724</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1.1146788990825689</v>
+      </c>
+      <c r="C19">
+        <v>-0.36574320886204614</v>
+      </c>
+      <c r="D19">
+        <v>-5.3016589920639436E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1.0381446444919133</v>
+      </c>
+      <c r="C20">
+        <v>-7.9413674522032893E-2</v>
+      </c>
+      <c r="D20">
+        <v>0.17360164549668039</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>0.96923076923076923</v>
+      </c>
+      <c r="C21">
+        <v>-5.3661237336302806E-2</v>
+      </c>
+      <c r="D21">
+        <v>0.16845666504106566</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>0.90695814449480139</v>
+      </c>
+      <c r="C22">
+        <v>-5.1656124040583506E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.164376542087666</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/xlsx/mix.xlsx
+++ b/xlsx/mix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mix\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D437B05-6ECA-4A19-9267-AC6A1B6878C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D349D-29CF-4212-B626-210B1BE200F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="4" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="5" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="可压" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="mix 50x50" sheetId="11" r:id="rId3"/>
     <sheet name="缩减积分" sheetId="12" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="13" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
   <si>
     <t>L2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +88,10 @@
   </si>
   <si>
     <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>np</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2306,7 +2311,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3609,15 +3614,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FB3ECC-B42E-488F-9457-AC93EEC64F44}">
-  <dimension ref="B1:I22"/>
+  <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
@@ -3645,16 +3651,16 @@
         <v>-1.2315505212561189</v>
       </c>
       <c r="F2">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="G2">
-        <v>1.89</v>
+        <v>2.1262500000000002</v>
       </c>
       <c r="H2">
-        <v>-2.0879851370063398</v>
+        <v>-2.3152474758268098</v>
       </c>
       <c r="I2">
-        <v>-1.0857192764448</v>
+        <v>-1.2010592838835501</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
@@ -3668,16 +3674,16 @@
         <v>-1.2314084169521953</v>
       </c>
       <c r="F3">
-        <v>1835</v>
+        <v>1610</v>
       </c>
       <c r="G3">
-        <v>1.85395095367847</v>
+        <v>2.11304347826086</v>
       </c>
       <c r="H3">
-        <v>-2.0898363995717002</v>
+        <v>-2.3525260850274199</v>
       </c>
       <c r="I3">
-        <v>-1.0681264483372901</v>
+        <v>-1.1765651144835101</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
@@ -3691,16 +3697,16 @@
         <v>-1.2312865511934377</v>
       </c>
       <c r="F4">
-        <v>1870</v>
+        <v>1620</v>
       </c>
       <c r="G4">
-        <v>1.8192513368983958</v>
+        <v>2.1</v>
       </c>
       <c r="H4">
-        <v>-2.0464519469414002</v>
+        <v>-2.2749836299833399</v>
       </c>
       <c r="I4">
-        <v>-1.0622292551558199</v>
+        <v>-1.1766178888766901</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -3714,16 +3720,16 @@
         <v>-1.2290331920296367</v>
       </c>
       <c r="F5">
-        <v>2010</v>
+        <v>1630</v>
       </c>
       <c r="G5">
-        <v>1.6925373134328301</v>
+        <v>2.0871165644171699</v>
       </c>
       <c r="H5">
-        <v>-1.9383680049087999</v>
+        <v>-2.2416128457770998</v>
       </c>
       <c r="I5">
-        <v>-1.00661759653969</v>
+        <v>-1.1583471483852501</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -3736,6 +3742,18 @@
       <c r="D6">
         <v>-1.2304817774549748</v>
       </c>
+      <c r="F6">
+        <v>1637</v>
+      </c>
+      <c r="G6">
+        <v>2.0781918142944402</v>
+      </c>
+      <c r="H6">
+        <v>-2.3022574211204998</v>
+      </c>
+      <c r="I6">
+        <v>-1.18390753532993</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7">
@@ -3747,6 +3765,18 @@
       <c r="D7">
         <v>-1.2305620546822198</v>
       </c>
+      <c r="F7">
+        <v>1638</v>
+      </c>
+      <c r="G7">
+        <v>2.07692307692307</v>
+      </c>
+      <c r="H7">
+        <v>-2.3039175916690602</v>
+      </c>
+      <c r="I7">
+        <v>-1.1808696949556701</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -3758,6 +3788,18 @@
       <c r="D8">
         <v>-1.2300475026736915</v>
       </c>
+      <c r="F8">
+        <v>1639</v>
+      </c>
+      <c r="G8">
+        <v>2.0756558877364202</v>
+      </c>
+      <c r="H8">
+        <v>-2.2724866624398099</v>
+      </c>
+      <c r="I8">
+        <v>-1.1682789169583101</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9">
@@ -3769,6 +3811,18 @@
       <c r="D9">
         <v>-1.2297855111567408</v>
       </c>
+      <c r="F9">
+        <v>1640</v>
+      </c>
+      <c r="G9">
+        <v>2.07439024390243</v>
+      </c>
+      <c r="H9">
+        <v>-2.3209087321695101</v>
+      </c>
+      <c r="I9">
+        <v>-1.2011741829175</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10">
@@ -3780,6 +3834,18 @@
       <c r="D10">
         <v>-1.2278498697906801</v>
       </c>
+      <c r="F10">
+        <v>1641</v>
+      </c>
+      <c r="G10">
+        <v>2.0731261425959699</v>
+      </c>
+      <c r="H10">
+        <v>-2.34998032165156</v>
+      </c>
+      <c r="I10">
+        <v>-1.1954194617373699</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11">
@@ -3791,6 +3857,18 @@
       <c r="D11">
         <v>-1.2262612096605012</v>
       </c>
+      <c r="F11">
+        <v>1642</v>
+      </c>
+      <c r="G11">
+        <v>2.0718635809987802</v>
+      </c>
+      <c r="H11">
+        <v>-2.2863502541095801</v>
+      </c>
+      <c r="I11">
+        <v>-1.16085287834088</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -3802,6 +3880,18 @@
       <c r="D12">
         <v>-1.1037036815107379</v>
       </c>
+      <c r="F12">
+        <v>1643</v>
+      </c>
+      <c r="G12">
+        <v>2.0706025562994501</v>
+      </c>
+      <c r="H12">
+        <v>-2.3597693461131999</v>
+      </c>
+      <c r="I12">
+        <v>-1.18265708848253</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13">
@@ -3813,6 +3903,18 @@
       <c r="D13">
         <v>-0.28585471760563813</v>
       </c>
+      <c r="F13">
+        <v>1644</v>
+      </c>
+      <c r="G13">
+        <v>2.0693430656934302</v>
+      </c>
+      <c r="H13">
+        <v>-2.2868888158766301</v>
+      </c>
+      <c r="I13">
+        <v>-1.18462667296465</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14">
@@ -3824,6 +3926,18 @@
       <c r="D14">
         <v>-0.21766013574081067</v>
       </c>
+      <c r="F14">
+        <v>1645</v>
+      </c>
+      <c r="G14">
+        <v>2.0680851063829699</v>
+      </c>
+      <c r="H14">
+        <v>-2.2517633316656398</v>
+      </c>
+      <c r="I14">
+        <v>-1.15297966801221</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -3835,6 +3949,18 @@
       <c r="D15">
         <v>-0.21046811496138365</v>
       </c>
+      <c r="F15">
+        <v>1646</v>
+      </c>
+      <c r="G15">
+        <v>2.0668286755771499</v>
+      </c>
+      <c r="H15">
+        <v>-2.2880263181399099</v>
+      </c>
+      <c r="I15">
+        <v>-1.1551941142092499</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -3846,8 +3972,20 @@
       <c r="D16">
         <v>-0.16329444497759382</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1647</v>
+      </c>
+      <c r="G16">
+        <v>2.0655737704917998</v>
+      </c>
+      <c r="H16">
+        <v>-2.3436092475689398</v>
+      </c>
+      <c r="I16">
+        <v>-1.17957522771526</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1.2955064737242956</v>
       </c>
@@ -3857,8 +3995,20 @@
       <c r="D17">
         <v>-0.13349946219612499</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1648</v>
+      </c>
+      <c r="G17">
+        <v>2.0643203883495098</v>
+      </c>
+      <c r="H17">
+        <v>-2.28237452368219</v>
+      </c>
+      <c r="I17">
+        <v>-1.1539828775280101</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1.2</v>
       </c>
@@ -3868,8 +4018,20 @@
       <c r="D18">
         <v>-0.10594131278770724</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>1649</v>
+      </c>
+      <c r="G18">
+        <v>2.0630685263796198</v>
+      </c>
+      <c r="H18">
+        <v>-2.3419302669838902</v>
+      </c>
+      <c r="I18">
+        <v>-1.1864893893977699</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1.1146788990825689</v>
       </c>
@@ -3879,8 +4041,20 @@
       <c r="D19">
         <v>-5.3016589920639436E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>1650</v>
+      </c>
+      <c r="G19">
+        <v>2.0618181818181802</v>
+      </c>
+      <c r="H19">
+        <v>-2.33784504600807</v>
+      </c>
+      <c r="I19">
+        <v>-1.17388122704238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1.0381446444919133</v>
       </c>
@@ -3890,8 +4064,20 @@
       <c r="D20">
         <v>0.17360164549668039</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1660</v>
+      </c>
+      <c r="G20">
+        <v>2.0493975903614401</v>
+      </c>
+      <c r="H20">
+        <v>-2.30943997513848</v>
+      </c>
+      <c r="I20">
+        <v>-1.18796359307348</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>0.96923076923076923</v>
       </c>
@@ -3901,8 +4087,20 @@
       <c r="D21">
         <v>0.16845666504106566</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1670</v>
+      </c>
+      <c r="G21">
+        <v>2.0371257485029899</v>
+      </c>
+      <c r="H21">
+        <v>-2.3237080013846199</v>
+      </c>
+      <c r="I21">
+        <v>-1.1940388295403099</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>0.90695814449480139</v>
       </c>
@@ -3911,6 +4109,475 @@
       </c>
       <c r="D22">
         <v>0.164376542087666</v>
+      </c>
+      <c r="F22">
+        <v>1680</v>
+      </c>
+      <c r="G22">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="H22">
+        <v>-2.2392379418510702</v>
+      </c>
+      <c r="I22">
+        <v>-1.1586871364895199</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1690</v>
+      </c>
+      <c r="G23">
+        <v>2.01301775147929</v>
+      </c>
+      <c r="H23">
+        <v>-2.2525317767544801</v>
+      </c>
+      <c r="I23">
+        <v>-1.1240877968527301</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>1701</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>-2.2834861663167998</v>
+      </c>
+      <c r="I24">
+        <v>-1.1740733529043601</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>1800</v>
+      </c>
+      <c r="G26">
+        <v>1.89</v>
+      </c>
+      <c r="H26">
+        <v>-2.0879851370063398</v>
+      </c>
+      <c r="I26">
+        <v>-1.0857192764448</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>1835</v>
+      </c>
+      <c r="G27">
+        <v>1.85395095367847</v>
+      </c>
+      <c r="H27">
+        <v>-2.0898363995717002</v>
+      </c>
+      <c r="I27">
+        <v>-1.0681264483372901</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>1870</v>
+      </c>
+      <c r="G28">
+        <v>1.8192513368983958</v>
+      </c>
+      <c r="H28">
+        <v>-2.0464519469414002</v>
+      </c>
+      <c r="I28">
+        <v>-1.0622292551558199</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>2010</v>
+      </c>
+      <c r="G29">
+        <v>1.6925373134328301</v>
+      </c>
+      <c r="H29">
+        <v>-1.9383680049087999</v>
+      </c>
+      <c r="I29">
+        <v>-1.00661759653969</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA90161-1EF7-4686-ADAF-A53DB575FE6F}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="A2:D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1600</v>
+      </c>
+      <c r="B2">
+        <v>2.1262500000000002</v>
+      </c>
+      <c r="C2">
+        <v>-2.4298009910844001</v>
+      </c>
+      <c r="D2">
+        <v>-1.25563837635895</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1610</v>
+      </c>
+      <c r="B3">
+        <v>2.11304347826086</v>
+      </c>
+      <c r="C3">
+        <v>-2.42241553578102</v>
+      </c>
+      <c r="D3">
+        <v>-1.25272366061874</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1620</v>
+      </c>
+      <c r="B4">
+        <v>2.1</v>
+      </c>
+      <c r="C4">
+        <v>-2.4227146627664502</v>
+      </c>
+      <c r="D4">
+        <v>-1.2466659242207401</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1630</v>
+      </c>
+      <c r="B5">
+        <v>2.0871165644171699</v>
+      </c>
+      <c r="C5">
+        <v>-2.4211551837901202</v>
+      </c>
+      <c r="D5">
+        <v>-1.24410856213707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1637</v>
+      </c>
+      <c r="B6">
+        <v>2.0781918142944411</v>
+      </c>
+      <c r="C6">
+        <v>-2.4112951047415101</v>
+      </c>
+      <c r="D6">
+        <v>-1.243992782722716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1638</v>
+      </c>
+      <c r="B7">
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="C7">
+        <v>-2.4343478697201726</v>
+      </c>
+      <c r="D7">
+        <v>-1.2481558482103154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1639</v>
+      </c>
+      <c r="B8">
+        <v>2.0756558877364246</v>
+      </c>
+      <c r="C8">
+        <v>-2.3885246599424934</v>
+      </c>
+      <c r="D8">
+        <v>-1.2462039726107541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1640</v>
+      </c>
+      <c r="B9">
+        <v>2.0743902439024389</v>
+      </c>
+      <c r="C9">
+        <v>-2.4561631927454468</v>
+      </c>
+      <c r="D9">
+        <v>-1.2488717679654029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1641</v>
+      </c>
+      <c r="B10">
+        <v>2.0731261425959779</v>
+      </c>
+      <c r="C10">
+        <v>-2.4279158514473345</v>
+      </c>
+      <c r="D10">
+        <v>-1.2509762183990094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1642</v>
+      </c>
+      <c r="B11">
+        <v>2.071863580998782</v>
+      </c>
+      <c r="C11">
+        <v>-2.4018471598448308</v>
+      </c>
+      <c r="D11">
+        <v>-1.2420528379366773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1643</v>
+      </c>
+      <c r="B12">
+        <v>2.0706025562994523</v>
+      </c>
+      <c r="C12">
+        <v>-2.398351779975616</v>
+      </c>
+      <c r="D12">
+        <v>-1.2489478826282718</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1644</v>
+      </c>
+      <c r="B13">
+        <v>2.0693430656934306</v>
+      </c>
+      <c r="C13">
+        <v>-2.3979651902904324</v>
+      </c>
+      <c r="D13">
+        <v>-1.2428554016423994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1645</v>
+      </c>
+      <c r="B14">
+        <v>2.0680851063829788</v>
+      </c>
+      <c r="C14">
+        <v>-2.3646189690965307</v>
+      </c>
+      <c r="D14">
+        <v>-1.2363532305860656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1646</v>
+      </c>
+      <c r="B15">
+        <v>2.0668286755771565</v>
+      </c>
+      <c r="C15">
+        <v>-2.4120272484613916</v>
+      </c>
+      <c r="D15">
+        <v>-1.2405323877110388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1647</v>
+      </c>
+      <c r="B16">
+        <v>2.0655737704918034</v>
+      </c>
+      <c r="C16">
+        <v>-2.4189881344689041</v>
+      </c>
+      <c r="D16">
+        <v>-1.2457614764983971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1648</v>
+      </c>
+      <c r="B17">
+        <v>2.0643203883495147</v>
+      </c>
+      <c r="C17">
+        <v>-2.3905307300365286</v>
+      </c>
+      <c r="D17">
+        <v>-1.2409930825553206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1649</v>
+      </c>
+      <c r="B18">
+        <v>2.0630685263796242</v>
+      </c>
+      <c r="C18">
+        <v>-2.402880247251431</v>
+      </c>
+      <c r="D18">
+        <v>-1.2480727034893657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1650</v>
+      </c>
+      <c r="B19">
+        <v>2.0618181818181802</v>
+      </c>
+      <c r="C19">
+        <v>-2.3912863013095902</v>
+      </c>
+      <c r="D19">
+        <v>-1.24629462957245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1660</v>
+      </c>
+      <c r="B20">
+        <v>2.0493975903614401</v>
+      </c>
+      <c r="C20">
+        <v>-2.4329448728146601</v>
+      </c>
+      <c r="D20">
+        <v>-1.2493584954917101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1670</v>
+      </c>
+      <c r="B21">
+        <v>2.0371257485029899</v>
+      </c>
+      <c r="C21">
+        <v>-2.4015103340425101</v>
+      </c>
+      <c r="D21">
+        <v>-1.2477868740309801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1680</v>
+      </c>
+      <c r="B22">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="C22">
+        <v>-2.41391257169958</v>
+      </c>
+      <c r="D22">
+        <v>-1.24606243235059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1690</v>
+      </c>
+      <c r="B23">
+        <v>2.01301775147929</v>
+      </c>
+      <c r="C23">
+        <v>-2.3908632874345099</v>
+      </c>
+      <c r="D23">
+        <v>-1.2393888294837101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1701</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>-2.4024023911887902</v>
+      </c>
+      <c r="D24">
+        <v>-1.24234003515362</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1800</v>
+      </c>
+      <c r="B29">
+        <v>1.89</v>
+      </c>
+      <c r="C29">
+        <v>-2.3711606334469799</v>
+      </c>
+      <c r="D29">
+        <v>-1.21852449132606</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2010</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/mix.xlsx
+++ b/xlsx/mix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mix\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5D349D-29CF-4212-B626-210B1BE200F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7BEEAD-5464-4163-964A-D5FF1C205968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="17040" activeTab="5" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
@@ -17,10 +17,10 @@
     <sheet name="不可压" sheetId="10" r:id="rId2"/>
     <sheet name="mix 50x50" sheetId="11" r:id="rId3"/>
     <sheet name="缩减积分" sheetId="12" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="14" r:id="rId6"/>
+    <sheet name="泡泡S固定" sheetId="13" r:id="rId5"/>
+    <sheet name="泡泡S变化" sheetId="14" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>L2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,7 +95,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>np</t>
+    <t>2nu:np</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理论计算最优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndiv=20、nu=1701</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndiv=4、nu=85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndiv=8、nu=297</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndiv=16、nu=1105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ndiv=32、nu=4257</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,6 +168,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -162,6 +206,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2310,8 +2359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C31BBA-8D59-4164-9153-B4543CC1DA22}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3246,8 +3295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9684DE1-CE80-428C-907B-F76A11B968A7}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3617,7 +3666,7 @@
   <dimension ref="B1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G5"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4216,368 +4265,1274 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA90161-1EF7-4686-ADAF-A53DB575FE6F}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:AH52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="A2:D24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="22" max="22" width="18.375" customWidth="1"/>
+    <col min="29" max="29" width="19.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1701</v>
+      </c>
+      <c r="B2">
+        <v>1100</v>
+      </c>
+      <c r="C2">
+        <v>3.0927272727272701</v>
+      </c>
+      <c r="D2">
+        <v>-2.3801191032717299</v>
+      </c>
+      <c r="E2">
+        <v>-1.2289732755434699</v>
+      </c>
+      <c r="F2">
+        <v>5.93266730669623E-3</v>
+      </c>
+      <c r="H2" s="5">
+        <v>85</v>
+      </c>
+      <c r="I2">
+        <v>40</v>
+      </c>
+      <c r="J2">
+        <v>4.25</v>
+      </c>
+      <c r="K2">
+        <v>-1.0042666811566701</v>
+      </c>
+      <c r="L2">
+        <v>-0.48265494850094698</v>
+      </c>
+      <c r="M2">
+        <v>4.79380271169744</v>
+      </c>
+      <c r="O2">
+        <v>297</v>
+      </c>
+      <c r="V2">
+        <v>1105</v>
+      </c>
+      <c r="AC2">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f>(2*A2+1-(1+8*A2)^(1/2))/2</f>
+        <v>1643.1711906516171</v>
+      </c>
+      <c r="B3">
+        <v>1200</v>
+      </c>
+      <c r="C3">
+        <v>2.835</v>
+      </c>
+      <c r="D3">
+        <v>-2.3847704290003402</v>
+      </c>
+      <c r="E3">
+        <v>-1.22925223214827</v>
+      </c>
+      <c r="F3">
+        <v>5.8164855390384297E-4</v>
+      </c>
+      <c r="H3" s="5">
+        <f>(2*H2+1-(1+8*H2)^(1/2))/2</f>
+        <v>72.452011649300118</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>3.4</v>
+      </c>
+      <c r="K3">
+        <v>-1.00386999112796</v>
+      </c>
+      <c r="L3">
+        <v>-0.501310857419908</v>
+      </c>
+      <c r="M3">
+        <v>0.30587038150300599</v>
+      </c>
+      <c r="O3" s="5">
+        <f>(2*O2+1-(1+8*O2)^(1/2))/2</f>
+        <v>273.12275651350217</v>
+      </c>
+      <c r="V3" s="5">
+        <f>(2*V2+1-(1+8*V2)^(1/2))/2</f>
+        <v>1058.4867040083341</v>
+      </c>
+      <c r="AC3" s="5">
+        <f>(2*AC2+1-(1+8*AC2)^(1/2))/2</f>
+        <v>4165.2273063143812</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1300</v>
+      </c>
+      <c r="C4">
+        <v>2.61692307692307</v>
+      </c>
+      <c r="D4">
+        <v>-2.3822255161825199</v>
+      </c>
+      <c r="E4">
+        <v>-1.22846677274223</v>
+      </c>
+      <c r="F4">
+        <v>1.7246598545232601E-4</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <v>2.8333333333333299</v>
+      </c>
+      <c r="K4">
+        <v>-1.0109576172294099</v>
+      </c>
+      <c r="L4">
+        <v>-0.48656973272856902</v>
+      </c>
+      <c r="M4">
+        <v>0.72118426265622004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1400</v>
+      </c>
+      <c r="C5">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="D5">
+        <v>-2.3766890471437598</v>
+      </c>
+      <c r="E5">
+        <v>-1.22583569264421</v>
+      </c>
+      <c r="F5">
+        <v>2.0649662389731101E-4</v>
+      </c>
+      <c r="I5">
+        <v>70</v>
+      </c>
+      <c r="J5">
+        <v>2.4285714285714199</v>
+      </c>
+      <c r="K5">
+        <v>-1.0052674956282801</v>
+      </c>
+      <c r="L5">
+        <v>-0.42775165048752201</v>
+      </c>
+      <c r="M5">
+        <v>0.74431639492859403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1500</v>
+      </c>
+      <c r="C6">
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="D6">
+        <v>-2.3789100128011098</v>
+      </c>
+      <c r="E6">
+        <v>-1.2215322536781399</v>
+      </c>
+      <c r="F6">
+        <v>2.6011503233074599E-4</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6">
+        <v>72</v>
+      </c>
+      <c r="J6" s="6">
+        <v>2.3611111111111098</v>
+      </c>
+      <c r="K6" s="6">
+        <v>-1.01724203001008</v>
+      </c>
+      <c r="L6" s="6">
+        <v>-0.45857545097728702</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.68127936463032202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>1600</v>
       </c>
-      <c r="B2">
+      <c r="C7">
         <v>2.1262500000000002</v>
       </c>
-      <c r="C2">
-        <v>-2.4298009910844001</v>
-      </c>
-      <c r="D2">
-        <v>-1.25563837635895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D7">
+        <v>-2.35929958088103</v>
+      </c>
+      <c r="E7">
+        <v>-1.2193492004000901</v>
+      </c>
+      <c r="F7">
+        <v>4.0179478481615301E-4</v>
+      </c>
+      <c r="I7">
+        <v>74</v>
+      </c>
+      <c r="J7">
+        <v>2.2972972972972898</v>
+      </c>
+      <c r="K7">
+        <v>-0.87341771762958198</v>
+      </c>
+      <c r="L7">
+        <v>-0.39282153706346801</v>
+      </c>
+      <c r="M7">
+        <v>0.685122317591907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>1610</v>
       </c>
-      <c r="B3">
-        <v>2.11304347826086</v>
-      </c>
-      <c r="C3">
-        <v>-2.42241553578102</v>
-      </c>
-      <c r="D3">
-        <v>-1.25272366061874</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C8">
+        <v>2.1130434781999998</v>
+      </c>
+      <c r="D8">
+        <v>-2.3815668022715499</v>
+      </c>
+      <c r="E8">
+        <v>-1.2065682599566201</v>
+      </c>
+      <c r="F8">
+        <v>4.30021357326139E-4</v>
+      </c>
+      <c r="I8">
+        <v>76</v>
+      </c>
+      <c r="J8">
+        <v>2.2368421052629999</v>
+      </c>
+      <c r="K8">
+        <v>-0.83617434750095199</v>
+      </c>
+      <c r="L8">
+        <v>-0.33174582183351098</v>
+      </c>
+      <c r="M8">
+        <v>0.35667375389073003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>1620</v>
       </c>
-      <c r="B4">
+      <c r="C9">
         <v>2.1</v>
       </c>
-      <c r="C4">
-        <v>-2.4227146627664502</v>
-      </c>
-      <c r="D4">
-        <v>-1.2466659242207401</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D9">
+        <v>-2.3454431822722199</v>
+      </c>
+      <c r="E9">
+        <v>-1.2103786199439199</v>
+      </c>
+      <c r="F9">
+        <v>4.3327545740445801E-4</v>
+      </c>
+      <c r="I9">
+        <v>78</v>
+      </c>
+      <c r="J9">
+        <v>2.17948717948717</v>
+      </c>
+      <c r="K9">
+        <v>-0.87407305012204495</v>
+      </c>
+      <c r="L9">
+        <v>-0.39897384183476198</v>
+      </c>
+      <c r="M9">
+        <v>0.249695578571727</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>1630</v>
       </c>
-      <c r="B5">
+      <c r="C10">
         <v>2.0871165644171699</v>
       </c>
-      <c r="C5">
-        <v>-2.4211551837901202</v>
-      </c>
-      <c r="D5">
-        <v>-1.24410856213707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D10">
+        <v>-2.3326169642437802</v>
+      </c>
+      <c r="E10">
+        <v>-1.2036436431809601</v>
+      </c>
+      <c r="F10">
+        <v>3.51700261604808E-4</v>
+      </c>
+      <c r="I10">
+        <v>80</v>
+      </c>
+      <c r="J10">
+        <v>2.125</v>
+      </c>
+      <c r="K10">
+        <v>-0.70865069494328403</v>
+      </c>
+      <c r="L10">
+        <v>-0.27790948600679699</v>
+      </c>
+      <c r="M10">
+        <v>0.198788703039189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>1637</v>
       </c>
-      <c r="B6">
+      <c r="C11">
         <v>2.0781918142944411</v>
       </c>
-      <c r="C6">
-        <v>-2.4112951047415101</v>
-      </c>
-      <c r="D6">
-        <v>-1.243992782722716</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D11">
+        <v>-2.3337101702801424</v>
+      </c>
+      <c r="E11">
+        <v>-1.2015454148333247</v>
+      </c>
+      <c r="F11">
+        <v>4.3786536013716202E-4</v>
+      </c>
+      <c r="I11">
+        <v>85</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>-0.36506638405206898</v>
+      </c>
+      <c r="L11">
+        <v>-3.0585988011832502E-2</v>
+      </c>
+      <c r="M11">
+        <v>6.7853890673869197E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>1638</v>
       </c>
-      <c r="B7">
+      <c r="C12">
         <v>2.0769230769230771</v>
       </c>
-      <c r="C7">
-        <v>-2.4343478697201726</v>
-      </c>
-      <c r="D7">
-        <v>-1.2481558482103154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D12">
+        <v>-2.3429365446900512</v>
+      </c>
+      <c r="E12">
+        <v>-1.1999123605285678</v>
+      </c>
+      <c r="F12">
+        <v>4.1182634662391399E-4</v>
+      </c>
+      <c r="I12">
+        <v>90</v>
+      </c>
+      <c r="J12">
+        <v>1.88888888888888</v>
+      </c>
+      <c r="K12">
+        <v>-0.364362682530181</v>
+      </c>
+      <c r="L12">
+        <v>-4.0722737537484802E-2</v>
+      </c>
+      <c r="M12">
+        <v>0.17463134037844599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>1639</v>
       </c>
-      <c r="B8">
+      <c r="C13">
         <v>2.0756558877364246</v>
       </c>
-      <c r="C8">
-        <v>-2.3885246599424934</v>
-      </c>
-      <c r="D8">
-        <v>-1.2462039726107541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D13">
+        <v>-2.3229971071496833</v>
+      </c>
+      <c r="E13">
+        <v>-1.1934084675659993</v>
+      </c>
+      <c r="F13">
+        <v>3.8363364513852602E-4</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <v>1.7</v>
+      </c>
+      <c r="K13">
+        <v>-0.19291093613802399</v>
+      </c>
+      <c r="L13">
+        <v>0.15259660668573399</v>
+      </c>
+      <c r="M13">
+        <v>0.19463611008255299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B14">
         <v>1640</v>
       </c>
-      <c r="B9">
+      <c r="C14">
         <v>2.0743902439024389</v>
       </c>
-      <c r="C9">
-        <v>-2.4561631927454468</v>
-      </c>
-      <c r="D9">
-        <v>-1.2488717679654029</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="D14">
+        <v>-2.3450196446137141</v>
+      </c>
+      <c r="E14">
+        <v>-1.2125575243258828</v>
+      </c>
+      <c r="F14">
+        <v>4.7682707860149498E-4</v>
+      </c>
+      <c r="I14">
+        <v>110</v>
+      </c>
+      <c r="J14">
+        <v>1.5454545454545401</v>
+      </c>
+      <c r="K14">
+        <v>-7.2995260481031707E-2</v>
+      </c>
+      <c r="L14">
+        <v>0.183226457839609</v>
+      </c>
+      <c r="M14">
+        <v>0.12429107533235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B15">
         <v>1641</v>
       </c>
-      <c r="B10">
+      <c r="C15">
         <v>2.0731261425959779</v>
       </c>
-      <c r="C10">
-        <v>-2.4279158514473345</v>
-      </c>
-      <c r="D10">
-        <v>-1.2509762183990094</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="D15">
+        <v>-2.3656736956184958</v>
+      </c>
+      <c r="E15">
+        <v>-1.2099742963413676</v>
+      </c>
+      <c r="F15">
+        <v>4.4673366412920301E-4</v>
+      </c>
+      <c r="I15">
+        <v>120</v>
+      </c>
+      <c r="J15">
+        <v>1.4166666666666601</v>
+      </c>
+      <c r="K15">
+        <v>-7.8554405429356294E-2</v>
+      </c>
+      <c r="L15">
+        <v>0.18724022230905399</v>
+      </c>
+      <c r="M15">
+        <v>0.16907396431973501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>1642</v>
       </c>
-      <c r="B11">
+      <c r="C16">
         <v>2.071863580998782</v>
       </c>
-      <c r="C11">
-        <v>-2.4018471598448308</v>
-      </c>
-      <c r="D11">
-        <v>-1.2420528379366773</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D16">
+        <v>-2.3371819447526896</v>
+      </c>
+      <c r="E16">
+        <v>-1.189288057113987</v>
+      </c>
+      <c r="F16">
+        <v>3.6446869744196102E-4</v>
+      </c>
+      <c r="I16">
+        <v>130</v>
+      </c>
+      <c r="J16">
+        <v>1.3076923076922999</v>
+      </c>
+      <c r="K16">
+        <v>-4.9602000083036502E-2</v>
+      </c>
+      <c r="L16">
+        <v>0.17179413652740999</v>
+      </c>
+      <c r="M16">
+        <v>3.2307111102944402E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
         <v>1643</v>
       </c>
-      <c r="B12">
+      <c r="C17" s="4">
         <v>2.0706025562994523</v>
       </c>
-      <c r="C12">
-        <v>-2.398351779975616</v>
-      </c>
-      <c r="D12">
-        <v>-1.2489478826282718</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="D17" s="4">
+        <v>-2.3725009260675849</v>
+      </c>
+      <c r="E17" s="4">
+        <v>-1.2016911613921351</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.77379307620931E-4</v>
+      </c>
+      <c r="I17">
+        <v>140</v>
+      </c>
+      <c r="J17">
+        <v>1.21428571428571</v>
+      </c>
+      <c r="K17">
+        <v>-4.9601999613076798E-2</v>
+      </c>
+      <c r="L17">
+        <v>0.171794136137808</v>
+      </c>
+      <c r="M17">
+        <v>7.3264360471723397E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>1644</v>
       </c>
-      <c r="B13">
+      <c r="C18">
         <v>2.0693430656934306</v>
       </c>
-      <c r="C13">
-        <v>-2.3979651902904324</v>
-      </c>
-      <c r="D13">
-        <v>-1.2428554016423994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="D18">
+        <v>-2.3270261767606191</v>
+      </c>
+      <c r="E18">
+        <v>-1.2028692871767255</v>
+      </c>
+      <c r="F18">
+        <v>5.1123664871118404E-4</v>
+      </c>
+      <c r="I18">
+        <v>150</v>
+      </c>
+      <c r="J18">
+        <v>1.13333333333333</v>
+      </c>
+      <c r="K18">
+        <v>-4.960199960522E-2</v>
+      </c>
+      <c r="L18">
+        <v>0.17179413618659201</v>
+      </c>
+      <c r="M18">
+        <v>5.7846286862780698E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>1645</v>
       </c>
-      <c r="B14">
+      <c r="C19">
         <v>2.0680851063829788</v>
       </c>
-      <c r="C14">
-        <v>-2.3646189690965307</v>
-      </c>
-      <c r="D14">
-        <v>-1.2363532305860656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="D19">
+        <v>-2.3063093288698742</v>
+      </c>
+      <c r="E19">
+        <v>-1.1806915721414892</v>
+      </c>
+      <c r="F19">
+        <v>4.7929923109671499E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20">
         <v>1646</v>
       </c>
-      <c r="B15">
+      <c r="C20">
         <v>2.0668286755771565</v>
       </c>
-      <c r="C15">
-        <v>-2.4120272484613916</v>
-      </c>
-      <c r="D15">
-        <v>-1.2405323877110388</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="D20">
+        <v>-2.337521462901758</v>
+      </c>
+      <c r="E20">
+        <v>-1.1853893402585176</v>
+      </c>
+      <c r="F20">
+        <v>4.30141249226466E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21">
         <v>1647</v>
       </c>
-      <c r="B16">
+      <c r="C21">
         <v>2.0655737704918034</v>
       </c>
-      <c r="C16">
-        <v>-2.4189881344689041</v>
-      </c>
-      <c r="D16">
-        <v>-1.2457614764983971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="D21">
+        <v>-2.3660999831455158</v>
+      </c>
+      <c r="E21">
+        <v>-1.2017721008908628</v>
+      </c>
+      <c r="F21">
+        <v>3.8651272810062102E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22">
         <v>1648</v>
       </c>
-      <c r="B17">
+      <c r="C22">
         <v>2.0643203883495147</v>
       </c>
-      <c r="C17">
-        <v>-2.3905307300365286</v>
-      </c>
-      <c r="D17">
-        <v>-1.2409930825553206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="D22">
+        <v>-2.3233895611157251</v>
+      </c>
+      <c r="E22">
+        <v>-1.1844704068626901</v>
+      </c>
+      <c r="F22">
+        <v>3.7149601908665697E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23">
         <v>1649</v>
       </c>
-      <c r="B18">
+      <c r="C23">
         <v>2.0630685263796242</v>
       </c>
-      <c r="C18">
-        <v>-2.402880247251431</v>
-      </c>
-      <c r="D18">
-        <v>-1.2480727034893657</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="D23">
+        <v>-2.3666367696377075</v>
+      </c>
+      <c r="E23">
+        <v>-1.2037736053769406</v>
+      </c>
+      <c r="F23">
+        <v>4.5046123602343602E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24">
         <v>1650</v>
       </c>
-      <c r="B19">
-        <v>2.0618181818181802</v>
-      </c>
-      <c r="C19">
-        <v>-2.3912863013095902</v>
-      </c>
-      <c r="D19">
-        <v>-1.24629462957245</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C24">
+        <v>2.061818181818182</v>
+      </c>
+      <c r="D24">
+        <v>-2.3704282665371901</v>
+      </c>
+      <c r="E24">
+        <v>-1.1969859341815607</v>
+      </c>
+      <c r="F24">
+        <v>4.9929858054109199E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25">
         <v>1660</v>
       </c>
-      <c r="B20">
+      <c r="C25">
         <v>2.0493975903614401</v>
       </c>
-      <c r="C20">
-        <v>-2.4329448728146601</v>
-      </c>
-      <c r="D20">
-        <v>-1.2493584954917101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="D25">
+        <v>-2.3432390951480899</v>
+      </c>
+      <c r="E25">
+        <v>-1.2061766550805499</v>
+      </c>
+      <c r="F25">
+        <v>3.4123275680039803E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>1670</v>
       </c>
-      <c r="B21">
+      <c r="C26">
         <v>2.0371257485029899</v>
       </c>
-      <c r="C21">
-        <v>-2.4015103340425101</v>
-      </c>
-      <c r="D21">
-        <v>-1.2477868740309801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="D26">
+        <v>-2.3510376504966</v>
+      </c>
+      <c r="E26">
+        <v>-1.2097944335231601</v>
+      </c>
+      <c r="F26">
+        <v>4.1272744982960298E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27">
         <v>1680</v>
       </c>
-      <c r="B22">
+      <c r="C27">
         <v>2.0249999999999999</v>
       </c>
-      <c r="C22">
-        <v>-2.41391257169958</v>
-      </c>
-      <c r="D22">
-        <v>-1.24606243235059</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="D27">
+        <v>-2.30779085703174</v>
+      </c>
+      <c r="E27">
+        <v>-1.19194254445063</v>
+      </c>
+      <c r="F27">
+        <v>4.8310132177962302E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B28">
         <v>1690</v>
       </c>
-      <c r="B23">
+      <c r="C28">
         <v>2.01301775147929</v>
       </c>
-      <c r="C23">
-        <v>-2.3908632874345099</v>
-      </c>
-      <c r="D23">
-        <v>-1.2393888294837101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="D28">
+        <v>-2.3420417755614702</v>
+      </c>
+      <c r="E28">
+        <v>-1.17751520029027</v>
+      </c>
+      <c r="F28">
+        <v>5.4340422742994298E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29">
         <v>1701</v>
       </c>
-      <c r="B24">
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="C24">
-        <v>-2.4024023911887902</v>
-      </c>
-      <c r="D24">
-        <v>-1.24234003515362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="D29">
+        <v>-2.3364245800458301</v>
+      </c>
+      <c r="E29">
+        <v>-1.2035983618224499</v>
+      </c>
+      <c r="F29">
+        <v>4.36060956354139E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1730</v>
+      </c>
+      <c r="C30">
+        <v>1.9664739884393001</v>
+      </c>
+      <c r="D30">
+        <v>-2.3530362700665099</v>
+      </c>
+      <c r="E30">
+        <v>-1.18264627075623</v>
+      </c>
+      <c r="F30">
+        <v>4.7907644251182898E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1750</v>
+      </c>
+      <c r="C31">
+        <v>1.944</v>
+      </c>
+      <c r="D31">
+        <v>-2.3190081302627199</v>
+      </c>
+      <c r="E31">
+        <v>-1.19881455874125</v>
+      </c>
+      <c r="F31">
+        <v>4.8643596633818402E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1770</v>
+      </c>
+      <c r="C32">
+        <v>1.92203389830508</v>
+      </c>
+      <c r="D32">
+        <v>-2.31552630318214</v>
+      </c>
+      <c r="E32">
+        <v>-1.1924532013365201</v>
+      </c>
+      <c r="F32">
+        <v>4.76628641864118E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
         <v>1800</v>
       </c>
-      <c r="B29">
+      <c r="C33">
         <v>1.89</v>
       </c>
-      <c r="C29">
-        <v>-2.3711606334469799</v>
-      </c>
-      <c r="D29">
-        <v>-1.21852449132606</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="D33">
+        <v>-2.2418552367022402</v>
+      </c>
+      <c r="E33">
+        <v>-1.15921822750472</v>
+      </c>
+      <c r="F33">
+        <v>5.0089628870978505E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
         <v>1870</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2010</v>
+      <c r="C34">
+        <v>1.81925133689839</v>
+      </c>
+      <c r="D34">
+        <v>-2.3153698272480301</v>
+      </c>
+      <c r="E34">
+        <v>-1.16274678856699</v>
+      </c>
+      <c r="F34">
+        <v>3.93775087545285E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>1900</v>
+      </c>
+      <c r="C35">
+        <v>1.79052631578947</v>
+      </c>
+      <c r="D35">
+        <v>-2.27684568145188</v>
+      </c>
+      <c r="E35">
+        <v>-1.1756660198084501</v>
+      </c>
+      <c r="F35">
+        <v>4.4659904336194001E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>2000</v>
+      </c>
+      <c r="C36">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="D36">
+        <v>-2.25718996936408</v>
+      </c>
+      <c r="E36">
+        <v>-1.15264569155338</v>
+      </c>
+      <c r="F36">
+        <v>3.4078881888649601E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>2100</v>
+      </c>
+      <c r="C37">
+        <v>1.62</v>
+      </c>
+      <c r="D37">
+        <v>-2.14272162743339</v>
+      </c>
+      <c r="E37">
+        <v>-1.10506044895198</v>
+      </c>
+      <c r="F37">
+        <v>5.4338166556425498E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>2200</v>
+      </c>
+      <c r="C38">
+        <v>1.5463636363636299</v>
+      </c>
+      <c r="D38">
+        <v>-2.08077696168586</v>
+      </c>
+      <c r="E38">
+        <v>-1.06334177580453</v>
+      </c>
+      <c r="F38">
+        <v>8.3890975368275205E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>2300</v>
+      </c>
+      <c r="C39">
+        <v>1.4791304347826</v>
+      </c>
+      <c r="D39">
+        <v>-1.90360003258109</v>
+      </c>
+      <c r="E39">
+        <v>-1.04895045895257</v>
+      </c>
+      <c r="F39">
+        <v>1.1617103584234099E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2400</v>
+      </c>
+      <c r="C40">
+        <v>1.4175</v>
+      </c>
+      <c r="D40">
+        <v>-1.8450374839370201</v>
+      </c>
+      <c r="E40">
+        <v>-0.99792310438855303</v>
+      </c>
+      <c r="F40">
+        <v>1.5461834472111E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>2500</v>
+      </c>
+      <c r="C41">
+        <v>1.3608</v>
+      </c>
+      <c r="D41">
+        <v>-1.2926588785453701</v>
+      </c>
+      <c r="E41">
+        <v>-0.64748856222736295</v>
+      </c>
+      <c r="F41">
+        <v>1.2544297437948901E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>2600</v>
+      </c>
+      <c r="C42">
+        <v>1.3084615384615299</v>
+      </c>
+      <c r="D42">
+        <v>-1.5294436156858</v>
+      </c>
+      <c r="E42">
+        <v>-0.77544384296226099</v>
+      </c>
+      <c r="F42">
+        <v>1.06521221237937E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>2700</v>
+      </c>
+      <c r="C43">
+        <v>1.26</v>
+      </c>
+      <c r="D43">
+        <v>-1.2937714419761599</v>
+      </c>
+      <c r="E43">
+        <v>-0.65801951851353302</v>
+      </c>
+      <c r="F43">
+        <v>8.3480243594195305E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>2800</v>
+      </c>
+      <c r="C44">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="D44">
+        <v>-0.89126346815122703</v>
+      </c>
+      <c r="E44">
+        <v>-0.437834398974423</v>
+      </c>
+      <c r="F44">
+        <v>4.45486000346531E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>2900</v>
+      </c>
+      <c r="C45">
+        <v>1.17310344827586</v>
+      </c>
+      <c r="D45">
+        <v>-0.70209002867556203</v>
+      </c>
+      <c r="E45">
+        <v>-0.30967699736834697</v>
+      </c>
+      <c r="F45">
+        <v>3.25852409474941E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>3000</v>
+      </c>
+      <c r="C46">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="D46">
+        <v>-0.26416885075220697</v>
+      </c>
+      <c r="E46">
+        <v>4.2889567941843398E-2</v>
+      </c>
+      <c r="F46">
+        <v>3.0587600051467197E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>3100</v>
+      </c>
+      <c r="C47">
+        <v>1.0974193548386999</v>
+      </c>
+      <c r="D47">
+        <v>-0.27403033797245402</v>
+      </c>
+      <c r="E47">
+        <v>5.60502566606517E-2</v>
+      </c>
+      <c r="F47">
+        <v>2.9745505430584499E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>3200</v>
+      </c>
+      <c r="C48">
+        <v>1.0631250000000001</v>
+      </c>
+      <c r="D48">
+        <v>-7.3780669406216803E-2</v>
+      </c>
+      <c r="E48">
+        <v>0.199327806046666</v>
+      </c>
+      <c r="F48">
+        <v>2.64740143226525E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>3300</v>
+      </c>
+      <c r="C49">
+        <v>1.0309090909090901</v>
+      </c>
+      <c r="D49">
+        <v>-5.9516761807842503E-2</v>
+      </c>
+      <c r="E49">
+        <v>0.178150640460393</v>
+      </c>
+      <c r="F49">
+        <v>3.2100406076601598E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>3400</v>
+      </c>
+      <c r="C50">
+        <v>1.00058823529411</v>
+      </c>
+      <c r="D50">
+        <v>-5.1504099333781903E-2</v>
+      </c>
+      <c r="E50">
+        <v>0.16427990449605101</v>
+      </c>
+      <c r="F50">
+        <v>3.05688350359928E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>3500</v>
+      </c>
+      <c r="C51">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D51">
+        <v>-5.15040973585114E-2</v>
+      </c>
+      <c r="E51">
+        <v>0.164279901012121</v>
+      </c>
+      <c r="F51">
+        <v>5.5311044597799802E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>3600</v>
+      </c>
+      <c r="C52">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D52">
+        <v>-5.1504110509134997E-2</v>
+      </c>
+      <c r="E52">
+        <v>0.16427993104619601</v>
+      </c>
+      <c r="F52">
+        <v>7.14492572454965E-4</v>
       </c>
     </row>
   </sheetData>
